--- a/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
+++ b/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
@@ -14,11 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>container_id</t>
   </si>
   <si>
+    <t>truck_arrival</t>
+  </si>
+  <si>
+    <t>truck_dropoff</t>
+  </si>
+  <si>
+    <t>hostler_pickup</t>
+  </si>
+  <si>
+    <t>hostler_dropoff</t>
+  </si>
+  <si>
+    <t>train_depart</t>
+  </si>
+  <si>
+    <t>crane_load</t>
+  </si>
+  <si>
     <t>train_arrival_expected</t>
   </si>
   <si>
@@ -28,63 +46,36 @@
     <t>crane_unload</t>
   </si>
   <si>
-    <t>hostler_pickup</t>
-  </si>
-  <si>
-    <t>hostler_dropoff</t>
-  </si>
-  <si>
     <t>truck_pickup</t>
   </si>
   <si>
     <t>truck_exit</t>
   </si>
   <si>
-    <t>truck_arrival</t>
-  </si>
-  <si>
-    <t>truck_dropoff</t>
-  </si>
-  <si>
-    <t>crane_load</t>
-  </si>
-  <si>
-    <t>train_depart</t>
-  </si>
-  <si>
     <t>container_processing_time</t>
   </si>
   <si>
     <t>IC-1-Train-13</t>
   </si>
   <si>
-    <t>IC-1-Train-17</t>
+    <t>IC-1-Train-22</t>
   </si>
   <si>
     <t>IC-1-Train-32</t>
   </si>
   <si>
-    <t>IC-1-Train-44</t>
-  </si>
-  <si>
     <t>IC-1-Train-55</t>
   </si>
   <si>
-    <t>IC-2-Train-17</t>
+    <t>IC-2-Train-22</t>
   </si>
   <si>
     <t>IC-2-Train-32</t>
   </si>
   <si>
-    <t>IC-2-Train-44</t>
-  </si>
-  <si>
     <t>IC-2-Train-55</t>
   </si>
   <si>
-    <t>IC-3-Train-17</t>
-  </si>
-  <si>
     <t>IC-3-Train-32</t>
   </si>
   <si>
@@ -100,25 +91,25 @@
     <t>OC-1-Train-13</t>
   </si>
   <si>
-    <t>OC-1-Train-17</t>
+    <t>OC-1-Train-14</t>
+  </si>
+  <si>
+    <t>OC-1-Train-22</t>
   </si>
   <si>
     <t>OC-1-Train-32</t>
   </si>
   <si>
-    <t>OC-1-Train-44</t>
-  </si>
-  <si>
     <t>OC-1-Train-55</t>
   </si>
   <si>
     <t>OC-2-Train-13</t>
   </si>
   <si>
+    <t>OC-2-Train-22</t>
+  </si>
+  <si>
     <t>OC-2-Train-32</t>
-  </si>
-  <si>
-    <t>OC-2-Train-44</t>
   </si>
   <si>
     <t>OC-2-Train-55</t>
@@ -195,21 +186,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M28" totalsRowShown="0">
-  <autoFilter ref="A1:M28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M25" totalsRowShown="0">
+  <autoFilter ref="A1:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="container_id" dataDxfId="0"/>
-    <tableColumn id="2" name="train_arrival_expected" dataDxfId="1"/>
-    <tableColumn id="3" name="train_arrival_actual" dataDxfId="1"/>
-    <tableColumn id="4" name="crane_unload" dataDxfId="1"/>
-    <tableColumn id="5" name="hostler_pickup" dataDxfId="1"/>
-    <tableColumn id="6" name="hostler_dropoff" dataDxfId="1"/>
-    <tableColumn id="7" name="truck_pickup" dataDxfId="1"/>
-    <tableColumn id="8" name="truck_exit" dataDxfId="1"/>
-    <tableColumn id="9" name="truck_arrival" dataDxfId="1"/>
-    <tableColumn id="10" name="truck_dropoff" dataDxfId="1"/>
-    <tableColumn id="11" name="crane_load" dataDxfId="1"/>
-    <tableColumn id="12" name="train_depart" dataDxfId="1"/>
+    <tableColumn id="2" name="truck_arrival" dataDxfId="1"/>
+    <tableColumn id="3" name="truck_dropoff" dataDxfId="1"/>
+    <tableColumn id="4" name="hostler_pickup" dataDxfId="1"/>
+    <tableColumn id="5" name="hostler_dropoff" dataDxfId="1"/>
+    <tableColumn id="6" name="train_depart" dataDxfId="1"/>
+    <tableColumn id="7" name="crane_load" dataDxfId="1"/>
+    <tableColumn id="8" name="train_arrival_expected" dataDxfId="1"/>
+    <tableColumn id="9" name="train_arrival_actual" dataDxfId="1"/>
+    <tableColumn id="10" name="crane_unload" dataDxfId="1"/>
+    <tableColumn id="11" name="truck_pickup" dataDxfId="1"/>
+    <tableColumn id="12" name="truck_exit" dataDxfId="1"/>
     <tableColumn id="13" name="container_processing_time" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -501,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,396 +543,362 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>0.3334273147656294</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.4334273147656293</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
         <v>0.1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="I2" s="2">
         <v>0.1</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.1333654444847327</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.6333866505791563</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.7333866505791563</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.8333866505791563</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.8762576034937392</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="2">
+        <v>0.1334273147656293</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.5334273147656293</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.5777254780617771</v>
+      </c>
       <c r="M2" s="2">
-        <v>0.7762576034937392</v>
+        <v>0.4777254780617771</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.60217745781315</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.635653459146851</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5.83565345914685</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.93565345914685</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.035653459146849</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>6.100295053544483</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.966945552053478</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.000426964883113</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2">
-        <v>5.500295053544483</v>
-      </c>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>0.03338665057915634</v>
+        <v>0.3334362249421572</v>
       </c>
       <c r="E4" s="2">
-        <v>0.2333866505791563</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3333866505791563</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.4333866505791564</v>
-      </c>
+        <v>0.4334362249421572</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2">
-        <v>0.4936127960236977</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.1334362249421572</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.5334362249421571</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.5917441277238255</v>
+      </c>
       <c r="M4" s="2">
-        <v>0.4936127960236977</v>
+        <v>0.4917441277238255</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5.301754235822756</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>5.335281131639673</v>
+        <v>2.067483917514176</v>
       </c>
       <c r="E5" s="2">
-        <v>5.535281131639672</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.635281131639672</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5.735281131639671</v>
-      </c>
+        <v>2.167483917514176</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <v>5.780242396906917</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.833958127922811</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.867483917514176</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.267483917514177</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.333435791626393</v>
+      </c>
       <c r="M5" s="2">
-        <v>5.280242396906917</v>
+        <v>1.933435791626393</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.533890476197524</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2.567258864765067</v>
+        <v>3.200279942136767</v>
       </c>
       <c r="E6" s="2">
-        <v>2.767258864765068</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.867258864765068</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.967258864765068</v>
-      </c>
+        <v>3.300279942136767</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
-        <v>3.026777332119635</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.966945552053478</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.000279942136767</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.400279942136768</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.462560975682221</v>
+      </c>
       <c r="M6" s="2">
-        <v>2.626777332119635</v>
+        <v>2.962560975682221</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.60217745781315</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>5.669051082851035</v>
+        <v>0.3333656243931255</v>
       </c>
       <c r="E7" s="2">
-        <v>5.935281131639671</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.03528113163967</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.13528113163967</v>
-      </c>
+        <v>0.4333656243931255</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>6.183012929123778</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1333656243931255</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.5333656243931255</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.5726174110953384</v>
+      </c>
       <c r="M7" s="2">
-        <v>5.583012929123778</v>
+        <v>0.4726174110953384</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>0.03360905906243555</v>
+        <v>3.133427314765631</v>
       </c>
       <c r="E8" s="2">
-        <v>0.2336090590624356</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.3336090590624355</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.4336090590624355</v>
-      </c>
+        <v>3.233427314765631</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <v>0.4952302803374017</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.833958127922811</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.901028436265087</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3.333427314765631</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3.391991483431145</v>
+      </c>
       <c r="M8" s="2">
-        <v>0.4952302803374017</v>
+        <v>2.991991483431145</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5.301754235822756</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>5.368819444545263</v>
+        <v>0.7333656243931255</v>
       </c>
       <c r="E9" s="2">
-        <v>5.568819444545262</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5.668819444545262</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5.768819444545262</v>
-      </c>
+        <v>0.8333656243931254</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <v>5.822933783087052</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.1667213903900396</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.9333656243931254</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.9870558119127835</v>
+      </c>
       <c r="M9" s="2">
-        <v>5.322933783087052</v>
+        <v>0.8870558119127835</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>3.167018675942068</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.267018675942068</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>0.4</v>
       </c>
-      <c r="C10" s="2">
-        <v>2.533890476197524</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.600649080573818</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.800649080573818</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.900649080573818</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3.000649080573818</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.063978477731518</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="I10" s="2">
+        <v>1.833958127922811</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.967018675942068</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.367018675942068</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.423458849093869</v>
+      </c>
       <c r="M10" s="2">
-        <v>2.663978477731519</v>
+        <v>3.023458849093869</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5.60217745781315</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5.70265489203452</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5.968819444545261</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.068819444545261</v>
-      </c>
-      <c r="G11" s="2">
-        <v>6.16881944454526</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <v>6.214953005593618</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.833958127922811</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.000588904187144</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>5.614953005593619</v>
-      </c>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.06685174849607697</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.266851748496077</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.3668517484960769</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.4668517484960769</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <v>0.5064572782234321</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.833958127922811</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>0.5064572782234321</v>
-      </c>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>0.4</v>
+        <v>0.05523651832748508</v>
       </c>
       <c r="C13" s="2">
-        <v>2.533890476197524</v>
+        <v>0.05523651832748508</v>
       </c>
       <c r="D13" s="2">
-        <v>2.634117190412241</v>
+        <v>1.43342731476563</v>
       </c>
       <c r="E13" s="2">
-        <v>2.834117190412242</v>
+        <v>1.63342731476563</v>
       </c>
       <c r="F13" s="2">
-        <v>2.934117190412242</v>
+        <v>1.833958127922811</v>
       </c>
       <c r="G13" s="2">
-        <v>3.034117190412242</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3.080945124421184</v>
-      </c>
+        <v>1.833958127922811</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2">
-        <v>2.680945124421184</v>
+        <v>1.778721609595326</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -949,457 +906,320 @@
         <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>0.4</v>
+        <v>0.0421766026273685</v>
       </c>
       <c r="C14" s="2">
-        <v>2.533890476197524</v>
+        <v>0.0421766026273685</v>
       </c>
       <c r="D14" s="2">
-        <v>2.667705924660813</v>
+        <v>0.8334273147656293</v>
       </c>
       <c r="E14" s="2">
-        <v>3.167258864765068</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3.267258864765068</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3.367258864765068</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3.417929246634408</v>
-      </c>
+        <v>1.033427314765629</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>3.017929246634408</v>
-      </c>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>0.4</v>
+        <v>0.05647557407499303</v>
       </c>
       <c r="C15" s="2">
-        <v>2.533890476197524</v>
+        <v>0.05647557407499303</v>
       </c>
       <c r="D15" s="2">
-        <v>2.701240916448791</v>
+        <v>1.73342731476563</v>
       </c>
       <c r="E15" s="2">
-        <v>3.200649080573818</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.300649080573818</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3.400649080573818</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3.43429167324288</v>
-      </c>
+        <v>1.93342731476563</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>3.03429167324288</v>
-      </c>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2">
+        <v>0.03479409695336932</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.03479409695336932</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5334273147656293</v>
+      </c>
       <c r="E16" s="2">
-        <v>0.6333866505791563</v>
+        <v>0.7334273147656293</v>
       </c>
       <c r="F16" s="2">
-        <v>0.8333866505791563</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>2.966945552053478</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.966970885418501</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>0.03786905668445378</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.03786905668445378</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2.466984920801739</v>
-      </c>
-      <c r="L16" s="2">
-        <v>2.533890476197524</v>
-      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2">
-        <v>2.429115864117285</v>
+        <v>2.932176788465132</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2">
+        <v>0.05196853345063265</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.05196853345063265</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.133436224942157</v>
+      </c>
       <c r="E17" s="2">
-        <v>3.934117190412243</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.134117190412242</v>
-      </c>
+        <v>1.333436224942157</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>0.05538748225747554</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.05538748225747554</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5.869192964845326</v>
-      </c>
-      <c r="L17" s="2">
-        <v>5.869192964845326</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5.813805482587851</v>
-      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2">
+        <v>0.03936236747870279</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.03936236747870279</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5334362249421571</v>
+      </c>
       <c r="E18" s="2">
-        <v>1.233386650579156</v>
+        <v>0.7334362249421571</v>
       </c>
       <c r="F18" s="2">
-        <v>1.433386650579157</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>1.833958127922811</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.766930771829081</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>0.04431990585065623</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.04431990585065623</v>
-      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <v>1.727568404350378</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2">
+        <v>0.06564224698502208</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.06564224698502208</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>4.234117190412242</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4.434117190412241</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>0.05888470542862737</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.05888470542862737</v>
-      </c>
-      <c r="K19" s="2">
-        <v>5.60217745781315</v>
-      </c>
-      <c r="L19" s="2">
-        <v>5.60217745781315</v>
-      </c>
-      <c r="M19" s="2">
-        <v>5.543292752384523</v>
-      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2">
+        <v>0.05959520131145554</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.05959520131145554</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.633427314765631</v>
+      </c>
       <c r="E20" s="2">
-        <v>4.83411719041224</v>
+        <v>2.833427314765631</v>
       </c>
       <c r="F20" s="2">
-        <v>5.034117190412239</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>2.966945552053478</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.966945552053478</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <v>0.06567417367592415</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.06567417367592415</v>
-      </c>
-      <c r="K20" s="2">
-        <v>5.301754235822756</v>
-      </c>
-      <c r="L20" s="2">
-        <v>5.301754235822756</v>
-      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2">
-        <v>5.236080062146832</v>
+        <v>2.907350350742023</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2">
+        <v>0.05579882626184485</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.05579882626184485</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.433436224942157</v>
+      </c>
       <c r="E21" s="2">
-        <v>0.9333866505791563</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.133386650579156</v>
-      </c>
+        <v>1.633436224942158</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>0.04215608238083036</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.04215608238083036</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2.500362302810134</v>
-      </c>
-      <c r="L21" s="2">
-        <v>2.533890476197524</v>
-      </c>
-      <c r="M21" s="2">
-        <v>2.458206220429303</v>
-      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2">
+        <v>0.04972960933625596</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.04972960933625596</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.133427314765629</v>
+      </c>
       <c r="E22" s="2">
-        <v>3.334117190412242</v>
+        <v>1.333427314765629</v>
       </c>
       <c r="F22" s="2">
-        <v>3.534117190412242</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>1.833958127922811</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.800464889008218</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>0.05410064491671523</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.05410064491671523</v>
-      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2">
+        <v>1.750735279671962</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2">
+        <v>0.05844218789290119</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.05844218789290119</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.33342731476563</v>
+      </c>
       <c r="E23" s="2">
-        <v>1.533386650579157</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.733386650579157</v>
-      </c>
+        <v>2.533427314765631</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>0.04618577893278146</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.04618577893278146</v>
-      </c>
-      <c r="K23" s="2">
-        <v>5.56866472323617</v>
-      </c>
-      <c r="L23" s="2">
-        <v>5.60217745781315</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5.522478944303388</v>
-      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2">
+        <v>0.05711932889319055</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.05711932889319055</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.03342731476563</v>
+      </c>
       <c r="E24" s="2">
-        <v>3.034117190412242</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3.234117190412242</v>
-      </c>
+        <v>2.23342731476563</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>0.05301000558705626</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.05301000558705626</v>
-      </c>
-      <c r="K24" s="2">
-        <v>5.201220137000739</v>
-      </c>
-      <c r="L24" s="2">
-        <v>5.301754235822756</v>
-      </c>
-      <c r="M24" s="2">
-        <v>5.148210131413682</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2">
+        <v>0.04605195933690999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.04605195933690999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.8334362249421571</v>
+      </c>
       <c r="E25" s="2">
-        <v>2.133386650579157</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2.333386650579157</v>
-      </c>
+        <v>1.033436224942157</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>0.04831156590359455</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.04831156590359455</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2.533890476197524</v>
-      </c>
-      <c r="L25" s="2">
-        <v>2.533890476197524</v>
-      </c>
-      <c r="M25" s="2">
-        <v>2.48557891029393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>4.534117190412241</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4.73411719041224</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>0.05907702123956343</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.05907702123956343</v>
-      </c>
-      <c r="K26" s="2">
-        <v>5.268363513723598</v>
-      </c>
-      <c r="L26" s="2">
-        <v>5.301754235822756</v>
-      </c>
-      <c r="M26" s="2">
-        <v>5.209286492484035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>1.833386650579157</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2.033386650579157</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>0.04638134781994866</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.04638134781994866</v>
-      </c>
-      <c r="K27" s="2">
-        <v>5.167646411860193</v>
-      </c>
-      <c r="L27" s="2">
-        <v>5.301754235822756</v>
-      </c>
-      <c r="M27" s="2">
-        <v>5.121265064040244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>3.634117190412242</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3.834117190412242</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>0.05534332667121605</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.05534332667121605</v>
-      </c>
-      <c r="K28" s="2">
-        <v>5.234763524275328</v>
-      </c>
-      <c r="L28" s="2">
-        <v>5.301754235822756</v>
-      </c>
-      <c r="M28" s="2">
-        <v>5.179420197604112</v>
-      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
+++ b/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>container_id</t>
   </si>
@@ -31,12 +31,12 @@
     <t>hostler_dropoff</t>
   </si>
   <si>
+    <t>crane_load</t>
+  </si>
+  <si>
     <t>train_depart</t>
   </si>
   <si>
-    <t>crane_load</t>
-  </si>
-  <si>
     <t>train_arrival_expected</t>
   </si>
   <si>
@@ -58,6 +58,9 @@
     <t>IC-1-Train-13</t>
   </si>
   <si>
+    <t>IC-1-Train-14</t>
+  </si>
+  <si>
     <t>IC-1-Train-22</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>IC-1-Train-55</t>
   </si>
   <si>
+    <t>IC-2-Train-14</t>
+  </si>
+  <si>
     <t>IC-2-Train-22</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t>IC-2-Train-55</t>
+  </si>
+  <si>
+    <t>IC-3-Train-14</t>
   </si>
   <si>
     <t>IC-3-Train-32</t>
@@ -186,16 +195,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M25" totalsRowShown="0">
-  <autoFilter ref="A1:M25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M28" totalsRowShown="0">
+  <autoFilter ref="A1:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="container_id" dataDxfId="0"/>
     <tableColumn id="2" name="truck_arrival" dataDxfId="1"/>
     <tableColumn id="3" name="truck_dropoff" dataDxfId="1"/>
     <tableColumn id="4" name="hostler_pickup" dataDxfId="1"/>
     <tableColumn id="5" name="hostler_dropoff" dataDxfId="1"/>
-    <tableColumn id="6" name="train_depart" dataDxfId="1"/>
-    <tableColumn id="7" name="crane_load" dataDxfId="1"/>
+    <tableColumn id="6" name="crane_load" dataDxfId="1"/>
+    <tableColumn id="7" name="train_depart" dataDxfId="1"/>
     <tableColumn id="8" name="train_arrival_expected" dataDxfId="1"/>
     <tableColumn id="9" name="train_arrival_actual" dataDxfId="1"/>
     <tableColumn id="10" name="crane_unload" dataDxfId="1"/>
@@ -492,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +555,10 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.3334273147656294</v>
+        <v>0.3335628636133984</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4334273147656293</v>
+        <v>0.4335628636133984</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -560,16 +569,16 @@
         <v>0.1</v>
       </c>
       <c r="J2" s="2">
-        <v>0.1334273147656293</v>
+        <v>0.1335628636133984</v>
       </c>
       <c r="K2" s="2">
-        <v>0.5334273147656293</v>
+        <v>0.5335628636133983</v>
       </c>
       <c r="L2" s="2">
-        <v>0.5777254780617771</v>
+        <v>0.5912810819761086</v>
       </c>
       <c r="M2" s="2">
-        <v>0.4777254780617771</v>
+        <v>0.4912810819761086</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -578,22 +587,32 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2">
+        <v>3.500814441089673</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.600814441089673</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="2">
-        <v>2.966945552053478</v>
+        <v>3.135200316101196</v>
       </c>
       <c r="J3" s="2">
-        <v>3.000426964883113</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+        <v>3.168668856348075</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.700814441089673</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3.745768614870784</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3.145768614870784</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -602,30 +621,30 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>0.3334362249421572</v>
+        <v>3.068188538170608</v>
       </c>
       <c r="E4" s="2">
-        <v>0.4334362249421572</v>
+        <v>3.168188538170608</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1</v>
+        <v>2.834613546174641</v>
       </c>
       <c r="J4" s="2">
-        <v>0.1334362249421572</v>
+        <v>2.868188538170608</v>
       </c>
       <c r="K4" s="2">
-        <v>0.5334362249421571</v>
+        <v>3.268188538170608</v>
       </c>
       <c r="L4" s="2">
-        <v>0.5917441277238255</v>
+        <v>3.331598728995603</v>
       </c>
       <c r="M4" s="2">
-        <v>0.4917441277238255</v>
+        <v>2.831598728995603</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -635,30 +654,30 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>2.067483917514176</v>
+        <v>0.333493945315984</v>
       </c>
       <c r="E5" s="2">
-        <v>2.167483917514176</v>
+        <v>0.433493945315984</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="2">
-        <v>1.833958127922811</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="2">
-        <v>1.867483917514176</v>
+        <v>0.133493945315984</v>
       </c>
       <c r="K5" s="2">
-        <v>2.267483917514177</v>
+        <v>0.5334939453159839</v>
       </c>
       <c r="L5" s="2">
-        <v>2.333435791626393</v>
+        <v>0.5875981510999927</v>
       </c>
       <c r="M5" s="2">
-        <v>1.933435791626393</v>
+        <v>0.4875981510999927</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -668,30 +687,30 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>3.200279942136767</v>
+        <v>2.667209740678775</v>
       </c>
       <c r="E6" s="2">
-        <v>3.300279942136767</v>
+        <v>2.767209740678775</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I6" s="2">
-        <v>2.966945552053478</v>
+        <v>2.43385916202467</v>
       </c>
       <c r="J6" s="2">
-        <v>3.000279942136767</v>
+        <v>2.467209740678775</v>
       </c>
       <c r="K6" s="2">
-        <v>3.400279942136768</v>
+        <v>2.867209740678775</v>
       </c>
       <c r="L6" s="2">
-        <v>3.462560975682221</v>
+        <v>2.914377303251403</v>
       </c>
       <c r="M6" s="2">
-        <v>2.962560975682221</v>
+        <v>2.514377303251403</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -701,30 +720,30 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>0.3333656243931255</v>
+        <v>3.867209740678776</v>
       </c>
       <c r="E7" s="2">
-        <v>0.4333656243931255</v>
+        <v>3.967209740678776</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1</v>
+        <v>3.135200316101196</v>
       </c>
       <c r="J7" s="2">
-        <v>0.1333656243931255</v>
+        <v>3.202087924461837</v>
       </c>
       <c r="K7" s="2">
-        <v>0.5333656243931255</v>
+        <v>4.067209740678776</v>
       </c>
       <c r="L7" s="2">
-        <v>0.5726174110953384</v>
+        <v>4.124309432728538</v>
       </c>
       <c r="M7" s="2">
-        <v>0.4726174110953384</v>
+        <v>3.524309432728538</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -734,30 +753,30 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>3.133427314765631</v>
+        <v>3.468188538170609</v>
       </c>
       <c r="E8" s="2">
-        <v>3.233427314765631</v>
+        <v>3.568188538170609</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="2">
-        <v>1.833958127922811</v>
+        <v>2.834613546174641</v>
       </c>
       <c r="J8" s="2">
-        <v>1.901028436265087</v>
+        <v>2.901533484108348</v>
       </c>
       <c r="K8" s="2">
-        <v>3.333427314765631</v>
+        <v>3.668188538170609</v>
       </c>
       <c r="L8" s="2">
-        <v>3.391991483431145</v>
+        <v>3.710884408030089</v>
       </c>
       <c r="M8" s="2">
-        <v>2.991991483431145</v>
+        <v>3.210884408030089</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -767,10 +786,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>0.7333656243931255</v>
+        <v>0.3334892080970204</v>
       </c>
       <c r="E9" s="2">
-        <v>0.8333656243931254</v>
+        <v>0.4334892080970204</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -781,16 +800,16 @@
         <v>0.1</v>
       </c>
       <c r="J9" s="2">
-        <v>0.1667213903900396</v>
+        <v>0.1334892080970204</v>
       </c>
       <c r="K9" s="2">
-        <v>0.9333656243931254</v>
+        <v>0.5334892080970204</v>
       </c>
       <c r="L9" s="2">
-        <v>0.9870558119127835</v>
+        <v>0.581196732439535</v>
       </c>
       <c r="M9" s="2">
-        <v>0.8870558119127835</v>
+        <v>0.481196732439535</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -800,10 +819,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>3.167018675942068</v>
+        <v>2.700814441089672</v>
       </c>
       <c r="E10" s="2">
-        <v>3.267018675942068</v>
+        <v>2.800814441089672</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -811,19 +830,19 @@
         <v>0.4</v>
       </c>
       <c r="I10" s="2">
-        <v>1.833958127922811</v>
+        <v>2.43385916202467</v>
       </c>
       <c r="J10" s="2">
-        <v>2.967018675942068</v>
+        <v>2.500814441089672</v>
       </c>
       <c r="K10" s="2">
-        <v>3.367018675942068</v>
+        <v>2.900814441089672</v>
       </c>
       <c r="L10" s="2">
-        <v>3.423458849093869</v>
+        <v>2.956037608808216</v>
       </c>
       <c r="M10" s="2">
-        <v>3.023458849093869</v>
+        <v>2.556037608808216</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -832,22 +851,32 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2">
+        <v>3.868188538170609</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.968188538170609</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I11" s="2">
-        <v>1.833958127922811</v>
+        <v>3.135200316101196</v>
       </c>
       <c r="J11" s="2">
-        <v>3.000588904187144</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+        <v>3.23565168870284</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4.068188538170609</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4.129383328082147</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.529383328082147</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
@@ -855,123 +884,153 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.7334892080970203</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8334892080970203</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="2">
-        <v>1.833958127922811</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.1669980733559426</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.9334892080970203</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.9775024861165689</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.8775024861165689</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.05523651832748508</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.05523651832748508</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>1.43342731476563</v>
+        <v>3.067209740678775</v>
       </c>
       <c r="E13" s="2">
-        <v>1.63342731476563</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.833958127922811</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.833958127922811</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>3.167209740678775</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.43385916202467</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.534283769428208</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3.267209740678775</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3.328046188053006</v>
+      </c>
       <c r="M13" s="2">
-        <v>1.778721609595326</v>
+        <v>2.928046188053006</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.0421766026273685</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.0421766026273685</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>0.8334273147656293</v>
+        <v>3.100814441089673</v>
       </c>
       <c r="E14" s="2">
-        <v>1.033427314765629</v>
+        <v>3.200814441089673</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.43385916202467</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.567729656237233</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3.300814441089673</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3.338093496148841</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.938093496148841</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.05647557407499303</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.05647557407499303</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>1.73342731476563</v>
+        <v>3.467209740678776</v>
       </c>
       <c r="E15" s="2">
-        <v>1.93342731476563</v>
+        <v>3.567209740678776</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.43385916202467</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.601259232006111</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3.667209740678776</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3.73094158613485</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3.33094158613485</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>0.03479409695336932</v>
+        <v>0.05776985466518532</v>
       </c>
       <c r="C16" s="2">
-        <v>0.03479409695336932</v>
+        <v>0.05776985466518532</v>
       </c>
       <c r="D16" s="2">
-        <v>0.5334273147656293</v>
+        <v>2.033562863613399</v>
       </c>
       <c r="E16" s="2">
-        <v>0.7334273147656293</v>
+        <v>2.233562863613399</v>
       </c>
       <c r="F16" s="2">
-        <v>2.966945552053478</v>
+        <v>2.43385916202467</v>
       </c>
       <c r="G16" s="2">
-        <v>2.966970885418501</v>
+        <v>2.43385916202467</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -979,7 +1038,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2">
-        <v>2.932176788465132</v>
+        <v>2.376089307359484</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -987,47 +1046,53 @@
         <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>0.05196853345063265</v>
+        <v>0.04200395468452389</v>
       </c>
       <c r="C17" s="2">
-        <v>0.05196853345063265</v>
+        <v>0.04200395468452389</v>
       </c>
       <c r="D17" s="2">
-        <v>1.133436224942157</v>
+        <v>1.133493945315984</v>
       </c>
       <c r="E17" s="2">
-        <v>1.333436224942157</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>1.333493945315984</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.534168518436906</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.534168518436906</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2">
+        <v>3.492164563752382</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03936236747870279</v>
+        <v>0.04370660944494531</v>
       </c>
       <c r="C18" s="2">
-        <v>0.03936236747870279</v>
+        <v>0.04370660944494531</v>
       </c>
       <c r="D18" s="2">
-        <v>0.5334362249421571</v>
+        <v>1.433562863613399</v>
       </c>
       <c r="E18" s="2">
-        <v>0.7334362249421571</v>
+        <v>1.633562863613399</v>
       </c>
       <c r="F18" s="2">
-        <v>1.833958127922811</v>
+        <v>3.135200316101196</v>
       </c>
       <c r="G18" s="2">
-        <v>1.766930771829081</v>
+        <v>3.135200316101196</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1035,7 +1100,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2">
-        <v>1.727568404350378</v>
+        <v>3.091493706656251</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1043,13 +1108,17 @@
         <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>0.06564224698502208</v>
+        <v>0.06345087789979217</v>
       </c>
       <c r="C19" s="2">
-        <v>0.06564224698502208</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>0.06345087789979217</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.333493945315985</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.533493945315985</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1064,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>0.05959520131145554</v>
+        <v>0.0460763358567271</v>
       </c>
       <c r="C20" s="2">
-        <v>0.05959520131145554</v>
+        <v>0.0460763358567271</v>
       </c>
       <c r="D20" s="2">
-        <v>2.633427314765631</v>
+        <v>1.733562863613399</v>
       </c>
       <c r="E20" s="2">
-        <v>2.833427314765631</v>
+        <v>1.933562863613399</v>
       </c>
       <c r="F20" s="2">
-        <v>2.966945552053478</v>
+        <v>2.80120537212986</v>
       </c>
       <c r="G20" s="2">
-        <v>2.966945552053478</v>
+        <v>2.834613546174641</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1087,7 +1156,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2">
-        <v>2.907350350742023</v>
+        <v>2.755129036273133</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1095,47 +1164,53 @@
         <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>0.05579882626184485</v>
+        <v>0.04042876046657449</v>
       </c>
       <c r="C21" s="2">
-        <v>0.05579882626184485</v>
+        <v>0.04042876046657449</v>
       </c>
       <c r="D21" s="2">
-        <v>1.433436224942157</v>
+        <v>0.8335628636133983</v>
       </c>
       <c r="E21" s="2">
-        <v>1.633436224942158</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>1.033562863613398</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.400450843300487</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.43385916202467</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2">
+        <v>2.360022082833912</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>0.04972960933625596</v>
+        <v>0.04348677853473569</v>
       </c>
       <c r="C22" s="2">
-        <v>0.04972960933625596</v>
+        <v>0.04348677853473569</v>
       </c>
       <c r="D22" s="2">
-        <v>1.133427314765629</v>
+        <v>1.433493945315984</v>
       </c>
       <c r="E22" s="2">
-        <v>1.333427314765629</v>
+        <v>1.633493945315984</v>
       </c>
       <c r="F22" s="2">
-        <v>1.833958127922811</v>
+        <v>3.101740530781292</v>
       </c>
       <c r="G22" s="2">
-        <v>1.800464889008218</v>
+        <v>3.135200316101196</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1143,7 +1218,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2">
-        <v>1.750735279671962</v>
+        <v>3.058253752246557</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1151,16 +1226,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>0.05844218789290119</v>
+        <v>0.04268600293793466</v>
       </c>
       <c r="C23" s="2">
-        <v>0.05844218789290119</v>
+        <v>0.04268600293793466</v>
       </c>
       <c r="D23" s="2">
-        <v>2.33342731476563</v>
+        <v>1.133562863613398</v>
       </c>
       <c r="E23" s="2">
-        <v>2.533427314765631</v>
+        <v>1.333562863613398</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1176,50 +1251,155 @@
         <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>0.05711932889319055</v>
+        <v>0.03424427258487971</v>
       </c>
       <c r="C24" s="2">
-        <v>0.05711932889319055</v>
+        <v>0.03424427258487971</v>
       </c>
       <c r="D24" s="2">
-        <v>2.03342731476563</v>
+        <v>0.5334939453159839</v>
       </c>
       <c r="E24" s="2">
-        <v>2.23342731476563</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>0.7334939453159839</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.700759077130486</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.834613546174641</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2">
+        <v>2.666514804545606</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>0.04605195933690999</v>
+        <v>0.04026016199656932</v>
       </c>
       <c r="C25" s="2">
-        <v>0.04605195933690999</v>
+        <v>0.04026016199656932</v>
       </c>
       <c r="D25" s="2">
-        <v>0.8334362249421571</v>
+        <v>0.8334939453159839</v>
       </c>
       <c r="E25" s="2">
-        <v>1.033436224942157</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>1.033493945315984</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.367084128054008</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2.43385916202467</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2">
+        <v>2.326823966057438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.05010509734679077</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.05010509734679077</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.033493945315985</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.233493945315985</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.834613546174641</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.834613546174641</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>2.78450844882785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.03777933272333719</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.03777933272333719</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.5335628636133983</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.7335628636133983</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.734333001865636</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.834613546174641</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>2.696553669142299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.04380373057859029</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.04380373057859029</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.733493945315985</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.933493945315985</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.767828259051019</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.834613546174641</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
+        <v>2.724024528472429</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
+++ b/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
@@ -555,10 +555,10 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.3335628636133984</v>
+        <v>0.3336049015870642</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4335628636133984</v>
+        <v>0.4336049015870642</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -569,16 +569,16 @@
         <v>0.1</v>
       </c>
       <c r="J2" s="2">
-        <v>0.1335628636133984</v>
+        <v>0.1336049015870642</v>
       </c>
       <c r="K2" s="2">
-        <v>0.5335628636133983</v>
+        <v>0.5336049015870642</v>
       </c>
       <c r="L2" s="2">
-        <v>0.5912810819761086</v>
+        <v>0.5736998883022416</v>
       </c>
       <c r="M2" s="2">
-        <v>0.4912810819761086</v>
+        <v>0.4736998883022416</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -588,10 +588,10 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>3.500814441089673</v>
+        <v>3.167061421990451</v>
       </c>
       <c r="E3" s="2">
-        <v>3.600814441089673</v>
+        <v>3.267061421990451</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -599,19 +599,19 @@
         <v>0.6</v>
       </c>
       <c r="I3" s="2">
-        <v>3.135200316101196</v>
+        <v>2.900206170525983</v>
       </c>
       <c r="J3" s="2">
-        <v>3.168668856348075</v>
+        <v>2.967061421990451</v>
       </c>
       <c r="K3" s="2">
-        <v>3.700814441089673</v>
+        <v>3.367061421990451</v>
       </c>
       <c r="L3" s="2">
-        <v>3.745768614870784</v>
+        <v>3.400491615947051</v>
       </c>
       <c r="M3" s="2">
-        <v>3.145768614870784</v>
+        <v>2.800491615947051</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -621,10 +621,10 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>3.068188538170608</v>
+        <v>3.066753862194585</v>
       </c>
       <c r="E4" s="2">
-        <v>3.168188538170608</v>
+        <v>3.166753862194585</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -632,19 +632,19 @@
         <v>0.5</v>
       </c>
       <c r="I4" s="2">
-        <v>2.834613546174641</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="J4" s="2">
-        <v>2.868188538170608</v>
+        <v>2.501668121916231</v>
       </c>
       <c r="K4" s="2">
-        <v>3.268188538170608</v>
+        <v>3.266753862194585</v>
       </c>
       <c r="L4" s="2">
-        <v>3.331598728995603</v>
+        <v>3.316241619873912</v>
       </c>
       <c r="M4" s="2">
-        <v>2.831598728995603</v>
+        <v>2.816241619873912</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -654,10 +654,10 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>0.333493945315984</v>
+        <v>0.3334010689825881</v>
       </c>
       <c r="E5" s="2">
-        <v>0.433493945315984</v>
+        <v>0.4334010689825881</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -668,16 +668,16 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="2">
-        <v>0.133493945315984</v>
+        <v>0.1334010689825882</v>
       </c>
       <c r="K5" s="2">
-        <v>0.5334939453159839</v>
+        <v>0.5334010689825881</v>
       </c>
       <c r="L5" s="2">
-        <v>0.5875981510999927</v>
+        <v>0.5866064870558684</v>
       </c>
       <c r="M5" s="2">
-        <v>0.4875981510999927</v>
+        <v>0.4866064870558684</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -687,10 +687,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2.667209740678775</v>
+        <v>2.300769894518473</v>
       </c>
       <c r="E6" s="2">
-        <v>2.767209740678775</v>
+        <v>2.400769894518473</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -698,19 +698,19 @@
         <v>0.4</v>
       </c>
       <c r="I6" s="2">
-        <v>2.43385916202467</v>
+        <v>2.066972853337756</v>
       </c>
       <c r="J6" s="2">
-        <v>2.467209740678775</v>
+        <v>2.100769894518473</v>
       </c>
       <c r="K6" s="2">
-        <v>2.867209740678775</v>
+        <v>2.500769894518474</v>
       </c>
       <c r="L6" s="2">
-        <v>2.914377303251403</v>
+        <v>2.560868225261486</v>
       </c>
       <c r="M6" s="2">
-        <v>2.514377303251403</v>
+        <v>2.160868225261486</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -720,10 +720,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>3.867209740678776</v>
+        <v>3.466753862194585</v>
       </c>
       <c r="E7" s="2">
-        <v>3.967209740678776</v>
+        <v>3.566753862194585</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -731,19 +731,19 @@
         <v>0.6</v>
       </c>
       <c r="I7" s="2">
-        <v>3.135200316101196</v>
+        <v>2.900206170525983</v>
       </c>
       <c r="J7" s="2">
-        <v>3.202087924461837</v>
+        <v>3.000556654851121</v>
       </c>
       <c r="K7" s="2">
-        <v>4.067209740678776</v>
+        <v>3.666753862194585</v>
       </c>
       <c r="L7" s="2">
-        <v>4.124309432728538</v>
+        <v>3.705941908891691</v>
       </c>
       <c r="M7" s="2">
-        <v>3.524309432728538</v>
+        <v>3.105941908891691</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -753,10 +753,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>3.468188538170609</v>
+        <v>3.100769894518474</v>
       </c>
       <c r="E8" s="2">
-        <v>3.568188538170609</v>
+        <v>3.200769894518474</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="I8" s="2">
-        <v>2.834613546174641</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="J8" s="2">
-        <v>2.901533484108348</v>
+        <v>2.535177572813558</v>
       </c>
       <c r="K8" s="2">
-        <v>3.668188538170609</v>
+        <v>3.300769894518474</v>
       </c>
       <c r="L8" s="2">
-        <v>3.710884408030089</v>
+        <v>3.358434968774694</v>
       </c>
       <c r="M8" s="2">
-        <v>3.210884408030089</v>
+        <v>2.858434968774694</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -786,10 +786,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>0.3334892080970204</v>
+        <v>0.3667538621945834</v>
       </c>
       <c r="E9" s="2">
-        <v>0.4334892080970204</v>
+        <v>0.4667538621945834</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -800,16 +800,16 @@
         <v>0.1</v>
       </c>
       <c r="J9" s="2">
-        <v>0.1334892080970204</v>
+        <v>0.1667538621945834</v>
       </c>
       <c r="K9" s="2">
-        <v>0.5334892080970204</v>
+        <v>0.5667538621945833</v>
       </c>
       <c r="L9" s="2">
-        <v>0.581196732439535</v>
+        <v>0.6177665683420046</v>
       </c>
       <c r="M9" s="2">
-        <v>0.481196732439535</v>
+        <v>0.5177665683420046</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -819,10 +819,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>2.700814441089672</v>
+        <v>2.334329183720759</v>
       </c>
       <c r="E10" s="2">
-        <v>2.800814441089672</v>
+        <v>2.434329183720759</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -830,19 +830,19 @@
         <v>0.4</v>
       </c>
       <c r="I10" s="2">
-        <v>2.43385916202467</v>
+        <v>2.066972853337756</v>
       </c>
       <c r="J10" s="2">
-        <v>2.500814441089672</v>
+        <v>2.134329183720759</v>
       </c>
       <c r="K10" s="2">
-        <v>2.900814441089672</v>
+        <v>2.53432918372076</v>
       </c>
       <c r="L10" s="2">
-        <v>2.956037608808216</v>
+        <v>2.579992573835332</v>
       </c>
       <c r="M10" s="2">
-        <v>2.556037608808216</v>
+        <v>2.179992573835333</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -852,10 +852,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>3.868188538170609</v>
+        <v>3.500769894518474</v>
       </c>
       <c r="E11" s="2">
-        <v>3.968188538170609</v>
+        <v>3.600769894518475</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -863,19 +863,19 @@
         <v>0.6</v>
       </c>
       <c r="I11" s="2">
-        <v>3.135200316101196</v>
+        <v>2.900206170525983</v>
       </c>
       <c r="J11" s="2">
-        <v>3.23565168870284</v>
+        <v>3.033897563236524</v>
       </c>
       <c r="K11" s="2">
-        <v>4.068188538170609</v>
+        <v>3.700769894518475</v>
       </c>
       <c r="L11" s="2">
-        <v>4.129383328082147</v>
+        <v>3.744761122617222</v>
       </c>
       <c r="M11" s="2">
-        <v>3.529383328082147</v>
+        <v>3.144761122617222</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -885,10 +885,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>0.7334892080970203</v>
+        <v>0.7334010689825881</v>
       </c>
       <c r="E12" s="2">
-        <v>0.8334892080970203</v>
+        <v>0.833401068982588</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -899,16 +899,16 @@
         <v>0.1</v>
       </c>
       <c r="J12" s="2">
-        <v>0.1669980733559426</v>
+        <v>0.2001852984112923</v>
       </c>
       <c r="K12" s="2">
-        <v>0.9334892080970203</v>
+        <v>0.933401068982588</v>
       </c>
       <c r="L12" s="2">
-        <v>0.9775024861165689</v>
+        <v>0.9783080242495533</v>
       </c>
       <c r="M12" s="2">
-        <v>0.8775024861165689</v>
+        <v>0.8783080242495533</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -918,10 +918,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>3.067209740678775</v>
+        <v>2.466753862194584</v>
       </c>
       <c r="E13" s="2">
-        <v>3.167209740678775</v>
+        <v>2.566753862194584</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -929,19 +929,19 @@
         <v>0.4</v>
       </c>
       <c r="I13" s="2">
-        <v>2.43385916202467</v>
+        <v>2.066972853337756</v>
       </c>
       <c r="J13" s="2">
-        <v>2.534283769428208</v>
+        <v>2.167832636281968</v>
       </c>
       <c r="K13" s="2">
-        <v>3.267209740678775</v>
+        <v>2.666753862194585</v>
       </c>
       <c r="L13" s="2">
-        <v>3.328046188053006</v>
+        <v>2.723806977025036</v>
       </c>
       <c r="M13" s="2">
-        <v>2.928046188053006</v>
+        <v>2.323806977025036</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -951,10 +951,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>3.100814441089673</v>
+        <v>2.700769894518474</v>
       </c>
       <c r="E14" s="2">
-        <v>3.200814441089673</v>
+        <v>2.800769894518474</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -962,19 +962,19 @@
         <v>0.4</v>
       </c>
       <c r="I14" s="2">
-        <v>2.43385916202467</v>
+        <v>2.066972853337756</v>
       </c>
       <c r="J14" s="2">
-        <v>2.567729656237233</v>
+        <v>2.201319045477135</v>
       </c>
       <c r="K14" s="2">
-        <v>3.300814441089673</v>
+        <v>2.900769894518474</v>
       </c>
       <c r="L14" s="2">
-        <v>3.338093496148841</v>
+        <v>2.937097002204863</v>
       </c>
       <c r="M14" s="2">
-        <v>2.938093496148841</v>
+        <v>2.537097002204863</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -984,10 +984,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>3.467209740678776</v>
+        <v>2.73432918372076</v>
       </c>
       <c r="E15" s="2">
-        <v>3.567209740678776</v>
+        <v>2.83432918372076</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -995,19 +995,19 @@
         <v>0.4</v>
       </c>
       <c r="I15" s="2">
-        <v>2.43385916202467</v>
+        <v>2.066972853337756</v>
       </c>
       <c r="J15" s="2">
-        <v>2.601259232006111</v>
+        <v>2.234693208375673</v>
       </c>
       <c r="K15" s="2">
-        <v>3.667209740678776</v>
+        <v>2.93432918372076</v>
       </c>
       <c r="L15" s="2">
-        <v>3.73094158613485</v>
+        <v>2.971300086334927</v>
       </c>
       <c r="M15" s="2">
-        <v>3.33094158613485</v>
+        <v>2.571300086334928</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1015,22 +1015,22 @@
         <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>0.05776985466518532</v>
+        <v>0.03413839810654625</v>
       </c>
       <c r="C16" s="2">
-        <v>0.05776985466518532</v>
+        <v>0.03413839810654625</v>
       </c>
       <c r="D16" s="2">
-        <v>2.033562863613399</v>
+        <v>0.5336049015870642</v>
       </c>
       <c r="E16" s="2">
-        <v>2.233562863613399</v>
+        <v>0.7336049015870642</v>
       </c>
       <c r="F16" s="2">
-        <v>2.43385916202467</v>
+        <v>2.900206170525983</v>
       </c>
       <c r="G16" s="2">
-        <v>2.43385916202467</v>
+        <v>2.900206170525983</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1038,7 +1038,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2">
-        <v>2.376089307359484</v>
+        <v>2.866067772419436</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1046,22 +1046,22 @@
         <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>0.04200395468452389</v>
+        <v>0.04289688656247629</v>
       </c>
       <c r="C17" s="2">
-        <v>0.04200395468452389</v>
+        <v>0.04289688656247629</v>
       </c>
       <c r="D17" s="2">
-        <v>1.133493945315984</v>
+        <v>0.8667538621945833</v>
       </c>
       <c r="E17" s="2">
-        <v>1.333493945315984</v>
+        <v>1.066753862194583</v>
       </c>
       <c r="F17" s="2">
-        <v>3.534168518436906</v>
+        <v>3.200524171203764</v>
       </c>
       <c r="G17" s="2">
-        <v>3.534168518436906</v>
+        <v>3.200524171203764</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1069,7 +1069,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2">
-        <v>3.492164563752382</v>
+        <v>3.157627284641288</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1077,22 +1077,22 @@
         <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>0.04370660944494531</v>
+        <v>0.05978201969213966</v>
       </c>
       <c r="C18" s="2">
-        <v>0.04370660944494531</v>
+        <v>0.05978201969213966</v>
       </c>
       <c r="D18" s="2">
-        <v>1.433562863613399</v>
+        <v>2.066753862194584</v>
       </c>
       <c r="E18" s="2">
-        <v>1.633562863613399</v>
+        <v>2.266753862194584</v>
       </c>
       <c r="F18" s="2">
-        <v>3.135200316101196</v>
+        <v>3.700537801291663</v>
       </c>
       <c r="G18" s="2">
-        <v>3.135200316101196</v>
+        <v>3.73400346921436</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1100,7 +1100,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2">
-        <v>3.091493706656251</v>
+        <v>3.640755781599523</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1108,47 +1108,53 @@
         <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>0.06345087789979217</v>
+        <v>0.05103367996198296</v>
       </c>
       <c r="C19" s="2">
-        <v>0.06345087789979217</v>
+        <v>0.05103367996198296</v>
       </c>
       <c r="D19" s="2">
-        <v>2.333493945315985</v>
+        <v>1.466753862194584</v>
       </c>
       <c r="E19" s="2">
-        <v>2.533493945315985</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>1.666753862194584</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.066972853337756</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.066972853337756</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2">
+        <v>2.015939173375773</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>0.0460763358567271</v>
+        <v>0.04992921634807481</v>
       </c>
       <c r="C20" s="2">
-        <v>0.0460763358567271</v>
+        <v>0.04992921634807481</v>
       </c>
       <c r="D20" s="2">
-        <v>1.733562863613399</v>
+        <v>1.433604901587064</v>
       </c>
       <c r="E20" s="2">
-        <v>1.933562863613399</v>
+        <v>1.633604901587065</v>
       </c>
       <c r="F20" s="2">
-        <v>2.80120537212986</v>
+        <v>2.43493126310162</v>
       </c>
       <c r="G20" s="2">
-        <v>2.834613546174641</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1156,7 +1162,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2">
-        <v>2.755129036273133</v>
+        <v>2.385002046753546</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1164,22 +1170,22 @@
         <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>0.04042876046657449</v>
+        <v>0.06324101886683738</v>
       </c>
       <c r="C21" s="2">
-        <v>0.04042876046657449</v>
+        <v>0.06324101886683738</v>
       </c>
       <c r="D21" s="2">
-        <v>0.8335628636133983</v>
+        <v>2.666753862194585</v>
       </c>
       <c r="E21" s="2">
-        <v>1.033562863613398</v>
+        <v>2.866753862194585</v>
       </c>
       <c r="F21" s="2">
-        <v>2.400450843300487</v>
+        <v>2.933604031942413</v>
       </c>
       <c r="G21" s="2">
-        <v>2.43385916202467</v>
+        <v>2.900206170525983</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1187,7 +1193,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2">
-        <v>2.360022082833912</v>
+        <v>2.870363013075576</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1195,22 +1201,22 @@
         <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>0.04348677853473569</v>
+        <v>0.06336746511303634</v>
       </c>
       <c r="C22" s="2">
-        <v>0.04348677853473569</v>
+        <v>0.06336746511303634</v>
       </c>
       <c r="D22" s="2">
-        <v>1.433493945315984</v>
+        <v>3.367061421990451</v>
       </c>
       <c r="E22" s="2">
-        <v>1.633493945315984</v>
+        <v>3.567061421990451</v>
       </c>
       <c r="F22" s="2">
-        <v>3.101740530781292</v>
+        <v>3.73400346921436</v>
       </c>
       <c r="G22" s="2">
-        <v>3.135200316101196</v>
+        <v>3.73400346921436</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1218,7 +1224,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2">
-        <v>3.058253752246557</v>
+        <v>3.670636004101324</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1226,47 +1232,53 @@
         <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>0.04268600293793466</v>
+        <v>0.05564685821004269</v>
       </c>
       <c r="C23" s="2">
-        <v>0.04268600293793466</v>
+        <v>0.05564685821004269</v>
       </c>
       <c r="D23" s="2">
-        <v>1.133562863613398</v>
+        <v>1.766753862194584</v>
       </c>
       <c r="E23" s="2">
-        <v>1.333562863613398</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>1.966753862194584</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.067162303112424</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2.066972853337756</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2">
+        <v>2.011515444902381</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>0.03424427258487971</v>
+        <v>0.0498912016914448</v>
       </c>
       <c r="C24" s="2">
-        <v>0.03424427258487971</v>
+        <v>0.0498912016914448</v>
       </c>
       <c r="D24" s="2">
-        <v>0.5334939453159839</v>
+        <v>1.166753862194583</v>
       </c>
       <c r="E24" s="2">
-        <v>0.7334939453159839</v>
+        <v>1.366753862194584</v>
       </c>
       <c r="F24" s="2">
-        <v>2.700759077130486</v>
+        <v>2.401380037769814</v>
       </c>
       <c r="G24" s="2">
-        <v>2.834613546174641</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1274,7 +1286,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2">
-        <v>2.666514804545606</v>
+        <v>2.351488836078369</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1282,22 +1294,22 @@
         <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>0.04026016199656932</v>
+        <v>0.04951293544228952</v>
       </c>
       <c r="C25" s="2">
-        <v>0.04026016199656932</v>
+        <v>0.04951293544228952</v>
       </c>
       <c r="D25" s="2">
-        <v>0.8334939453159839</v>
+        <v>1.133604901587064</v>
       </c>
       <c r="E25" s="2">
-        <v>1.033493945315984</v>
+        <v>1.333604901587064</v>
       </c>
       <c r="F25" s="2">
-        <v>2.367084128054008</v>
+        <v>2.90010656310776</v>
       </c>
       <c r="G25" s="2">
-        <v>2.43385916202467</v>
+        <v>2.900206170525983</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1305,7 +1317,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2">
-        <v>2.326823966057438</v>
+        <v>2.850593627665471</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1313,22 +1325,22 @@
         <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>0.05010509734679077</v>
+        <v>0.03566360537114419</v>
       </c>
       <c r="C26" s="2">
-        <v>0.05010509734679077</v>
+        <v>0.03566360537114419</v>
       </c>
       <c r="D26" s="2">
-        <v>2.033493945315985</v>
+        <v>0.5667538621945833</v>
       </c>
       <c r="E26" s="2">
-        <v>2.233493945315985</v>
+        <v>0.7667538621945833</v>
       </c>
       <c r="F26" s="2">
-        <v>2.834613546174641</v>
+        <v>2.334366094633421</v>
       </c>
       <c r="G26" s="2">
-        <v>2.834613546174641</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1336,7 +1348,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2">
-        <v>2.78450844882785</v>
+        <v>2.298702489262277</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1344,22 +1356,22 @@
         <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>0.03777933272333719</v>
+        <v>0.03793176172008761</v>
       </c>
       <c r="C27" s="2">
-        <v>0.03777933272333719</v>
+        <v>0.03793176172008761</v>
       </c>
       <c r="D27" s="2">
-        <v>0.5335628636133983</v>
+        <v>0.8336049015870641</v>
       </c>
       <c r="E27" s="2">
-        <v>0.7335628636133983</v>
+        <v>1.033604901587064</v>
       </c>
       <c r="F27" s="2">
-        <v>2.734333001865636</v>
+        <v>2.367891506897013</v>
       </c>
       <c r="G27" s="2">
-        <v>2.834613546174641</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1367,7 +1379,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2">
-        <v>2.696553669142299</v>
+        <v>2.329959745176925</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1375,22 +1387,22 @@
         <v>39</v>
       </c>
       <c r="B28" s="2">
-        <v>0.04380373057859029</v>
+        <v>0.05321462881442676</v>
       </c>
       <c r="C28" s="2">
-        <v>0.04380373057859029</v>
+        <v>0.05321462881442676</v>
       </c>
       <c r="D28" s="2">
-        <v>1.733493945315985</v>
+        <v>1.733604901587065</v>
       </c>
       <c r="E28" s="2">
-        <v>1.933493945315985</v>
+        <v>1.933604901587065</v>
       </c>
       <c r="F28" s="2">
-        <v>2.767828259051019</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="G28" s="2">
-        <v>2.834613546174641</v>
+        <v>2.468283117352149</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1398,7 +1410,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2">
-        <v>2.724024528472429</v>
+        <v>2.415068488537722</v>
       </c>
     </row>
   </sheetData>

--- a/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
+++ b/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>container_id</t>
   </si>
@@ -43,7 +43,7 @@
     <t>train_arrival_actual</t>
   </si>
   <si>
-    <t>crane_unload</t>
+    <t>crane_unload_by_crane(type='Hybrid', id=1, track_id=1)</t>
   </si>
   <si>
     <t>truck_pickup</t>
@@ -52,6 +52,12 @@
     <t>truck_exit</t>
   </si>
   <si>
+    <t>crane_unload_by_crane(type='Hybrid', id=2, track_id=1)</t>
+  </si>
+  <si>
+    <t>crane_unload_by_crane(type='Hybrid', id=1, track_id=2)</t>
+  </si>
+  <si>
     <t>container_processing_time</t>
   </si>
   <si>
@@ -70,9 +76,6 @@
     <t>IC-1-Train-55</t>
   </si>
   <si>
-    <t>IC-2-Train-14</t>
-  </si>
-  <si>
     <t>IC-2-Train-22</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>IC-2-Train-55</t>
   </si>
   <si>
-    <t>IC-3-Train-14</t>
-  </si>
-  <si>
     <t>IC-3-Train-32</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t>OC-2-Train-13</t>
   </si>
   <si>
+    <t>OC-2-Train-14</t>
+  </si>
+  <si>
     <t>OC-2-Train-22</t>
   </si>
   <si>
@@ -127,7 +130,13 @@
     <t>OC-3-Train-13</t>
   </si>
   <si>
+    <t>OC-3-Train-14</t>
+  </si>
+  <si>
     <t>OC-3-Train-55</t>
+  </si>
+  <si>
+    <t>OC-4-Train-14</t>
   </si>
   <si>
     <t>OC-4-Train-55</t>
@@ -195,9 +204,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M28" totalsRowShown="0">
-  <autoFilter ref="A1:M28"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:O29" totalsRowShown="0">
+  <autoFilter ref="A1:O29"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="container_id" dataDxfId="0"/>
     <tableColumn id="2" name="truck_arrival" dataDxfId="1"/>
     <tableColumn id="3" name="truck_dropoff" dataDxfId="1"/>
@@ -207,10 +216,12 @@
     <tableColumn id="7" name="train_depart" dataDxfId="1"/>
     <tableColumn id="8" name="train_arrival_expected" dataDxfId="1"/>
     <tableColumn id="9" name="train_arrival_actual" dataDxfId="1"/>
-    <tableColumn id="10" name="crane_unload" dataDxfId="1"/>
+    <tableColumn id="10" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=1)" dataDxfId="1"/>
     <tableColumn id="11" name="truck_pickup" dataDxfId="1"/>
     <tableColumn id="12" name="truck_exit" dataDxfId="1"/>
-    <tableColumn id="13" name="container_processing_time" dataDxfId="1"/>
+    <tableColumn id="13" name="crane_unload_by_crane(type='Hybrid', id=2, track_id=1)" dataDxfId="1"/>
+    <tableColumn id="14" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=2)" dataDxfId="1"/>
+    <tableColumn id="15" name="container_processing_time" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,18 +558,24 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.3336049015870642</v>
+        <v>0.3335756587687493</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4336049015870642</v>
+        <v>0.4335756587687493</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -568,96 +585,90 @@
       <c r="I2" s="2">
         <v>0.1</v>
       </c>
-      <c r="J2" s="2">
-        <v>0.1336049015870642</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>0.5336049015870642</v>
+        <v>0.5335756587687492</v>
       </c>
       <c r="L2" s="2">
-        <v>0.5736998883022416</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.4736998883022416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5822202969906769</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
+        <v>0.1335756587687493</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.4822202969906769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>3.167061421990451</v>
+        <v>4.934693057802367</v>
       </c>
       <c r="E3" s="2">
-        <v>3.267061421990451</v>
+        <v>5.034693057802366</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I3" s="2">
-        <v>2.900206170525983</v>
+        <v>4.701164487322491</v>
       </c>
       <c r="J3" s="2">
-        <v>2.967061421990451</v>
+        <v>4.734693057802367</v>
       </c>
       <c r="K3" s="2">
-        <v>3.367061421990451</v>
+        <v>5.134693057802366</v>
       </c>
       <c r="L3" s="2">
-        <v>3.400491615947051</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2.800491615947051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.174147026808731</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <v>4.77414702680873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>3.066753862194585</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.166753862194585</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="2">
-        <v>2.468283117352149</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2.501668121916231</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.266753862194585</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3.316241619873912</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2.816241619873912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.334204092868858</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>0.3334010689825881</v>
+        <v>0.3333708549008351</v>
       </c>
       <c r="E5" s="2">
-        <v>0.4334010689825881</v>
+        <v>0.433370854900835</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -668,128 +679,124 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="2">
-        <v>0.1334010689825882</v>
+        <v>0.1333708549008351</v>
       </c>
       <c r="K5" s="2">
-        <v>0.5334010689825881</v>
+        <v>0.533370854900835</v>
       </c>
       <c r="L5" s="2">
-        <v>0.5866064870558684</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.4866064870558684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5764206755220675</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>0.4764206755220676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2.300769894518473</v>
+        <v>1.400633194786547</v>
       </c>
       <c r="E6" s="2">
-        <v>2.400769894518473</v>
+        <v>1.500633194786547</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="2">
-        <v>2.066972853337756</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="J6" s="2">
-        <v>2.100769894518473</v>
+        <v>1.200633194786547</v>
       </c>
       <c r="K6" s="2">
-        <v>2.500769894518474</v>
+        <v>1.600633194786547</v>
       </c>
       <c r="L6" s="2">
-        <v>2.560868225261486</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2.160868225261486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.646177664935731</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>1.546177664935731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>3.466753862194585</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.566753862194585</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I7" s="2">
-        <v>2.900206170525983</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.000556654851121</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3.666753862194585</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3.705941908891691</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3.105941908891691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.334204092868858</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>3.100769894518474</v>
+        <v>0.3335698509861094</v>
       </c>
       <c r="E8" s="2">
-        <v>3.200769894518474</v>
+        <v>0.4335698509861093</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="2">
-        <v>2.468283117352149</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2.535177572813558</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <v>3.300769894518474</v>
+        <v>0.5335698509861093</v>
       </c>
       <c r="L8" s="2">
-        <v>3.358434968774694</v>
+        <v>0.5723100651923855</v>
       </c>
       <c r="M8" s="2">
-        <v>2.858434968774694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1335698509861094</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>0.4723100651923855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>0.3667538621945834</v>
+        <v>1.434018875094821</v>
       </c>
       <c r="E9" s="2">
-        <v>0.4667538621945834</v>
+        <v>1.534018875094821</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -797,98 +804,104 @@
         <v>0.1</v>
       </c>
       <c r="I9" s="2">
-        <v>0.1</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="J9" s="2">
-        <v>0.1667538621945834</v>
+        <v>1.23401887509482</v>
       </c>
       <c r="K9" s="2">
-        <v>0.5667538621945833</v>
+        <v>1.634018875094821</v>
       </c>
       <c r="L9" s="2">
-        <v>0.6177665683420046</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.5177665683420046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.6838733216946</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>1.583873321694599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>2.334329183720759</v>
+        <v>0.733370854900835</v>
       </c>
       <c r="E10" s="2">
-        <v>2.434329183720759</v>
+        <v>0.833370854900835</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="2">
-        <v>2.066972853337756</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="2">
-        <v>2.134329183720759</v>
+        <v>0.1668924794209455</v>
       </c>
       <c r="K10" s="2">
-        <v>2.53432918372076</v>
+        <v>0.9333708549008349</v>
       </c>
       <c r="L10" s="2">
-        <v>2.579992573835332</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2.179992573835333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9958054129007161</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>0.8958054129007161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>3.500769894518474</v>
+        <v>1.53357565876875</v>
       </c>
       <c r="E11" s="2">
-        <v>3.600769894518475</v>
+        <v>1.63357565876875</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="2">
-        <v>2.900206170525983</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="J11" s="2">
-        <v>3.033897563236524</v>
+        <v>1.267360429342491</v>
       </c>
       <c r="K11" s="2">
-        <v>3.700769894518475</v>
+        <v>1.73357565876875</v>
       </c>
       <c r="L11" s="2">
-        <v>3.744761122617222</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3.144761122617222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.795011651561497</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>1.695011651561497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>0.7334010689825881</v>
+        <v>1.800633194786547</v>
       </c>
       <c r="E12" s="2">
-        <v>0.833401068982588</v>
+        <v>1.900633194786547</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -896,521 +909,572 @@
         <v>0.1</v>
       </c>
       <c r="I12" s="2">
-        <v>0.1</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="J12" s="2">
-        <v>0.2001852984112923</v>
+        <v>1.30079009512422</v>
       </c>
       <c r="K12" s="2">
-        <v>0.933401068982588</v>
+        <v>2.000633194786547</v>
       </c>
       <c r="L12" s="2">
-        <v>0.9783080242495533</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.8783080242495533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.042597250665736</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>1.942597250665736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>2.466753862194584</v>
+        <v>1.93357565876875</v>
       </c>
       <c r="E13" s="2">
-        <v>2.566753862194584</v>
+        <v>2.03357565876875</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="2">
-        <v>2.066972853337756</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="J13" s="2">
-        <v>2.167832636281968</v>
+        <v>1.334293155784119</v>
       </c>
       <c r="K13" s="2">
-        <v>2.666753862194585</v>
+        <v>2.13357565876875</v>
       </c>
       <c r="L13" s="2">
-        <v>2.723806977025036</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2.323806977025036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.194963775716046</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <v>2.094963775716046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.04060013624204847</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.04060013624204847</v>
+      </c>
       <c r="D14" s="2">
-        <v>2.700769894518474</v>
+        <v>2.000633194786547</v>
       </c>
       <c r="E14" s="2">
-        <v>2.800769894518474</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2.066972853337756</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2.201319045477135</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.900769894518474</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2.937097002204863</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2.537097002204863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.200633194786547</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.367528974145059</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.334204092868858</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>2.326928837903011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.039901730974474</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.039901730974474</v>
+      </c>
       <c r="D15" s="2">
-        <v>2.73432918372076</v>
+        <v>1.834018875094821</v>
       </c>
       <c r="E15" s="2">
-        <v>2.83432918372076</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2.066972853337756</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2.234693208375673</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2.93432918372076</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2.971300086334927</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2.571300086334928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.034018875094821</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5.001593862631286</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.068495455495701</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
+        <v>4.961692131656812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>0.03413839810654625</v>
+        <v>0.04689686491388399</v>
       </c>
       <c r="C16" s="2">
-        <v>0.03413839810654625</v>
+        <v>0.04689686491388399</v>
       </c>
       <c r="D16" s="2">
-        <v>0.5336049015870642</v>
+        <v>2.434018875094822</v>
       </c>
       <c r="E16" s="2">
-        <v>0.7336049015870642</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.900206170525983</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2.900206170525983</v>
-      </c>
+        <v>2.634018875094822</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <v>2.866067772419436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>0.04289688656247629</v>
+        <v>0.03483628005213934</v>
       </c>
       <c r="C17" s="2">
-        <v>0.04289688656247629</v>
+        <v>0.03483628005213934</v>
       </c>
       <c r="D17" s="2">
-        <v>0.8667538621945833</v>
+        <v>0.5335698509861093</v>
       </c>
       <c r="E17" s="2">
-        <v>1.066753862194583</v>
+        <v>0.7335698509861093</v>
       </c>
       <c r="F17" s="2">
-        <v>3.200524171203764</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="G17" s="2">
-        <v>3.200524171203764</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>3.157627284641288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
+        <v>1.132109502090337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
-        <v>0.05978201969213966</v>
+        <v>0.06622022177504637</v>
       </c>
       <c r="C18" s="2">
-        <v>0.05978201969213966</v>
+        <v>0.06622022177504637</v>
       </c>
       <c r="D18" s="2">
-        <v>2.066753862194584</v>
+        <v>4.234018875094822</v>
       </c>
       <c r="E18" s="2">
-        <v>2.266753862194584</v>
+        <v>4.434018875094822</v>
       </c>
       <c r="F18" s="2">
-        <v>3.700537801291663</v>
+        <v>4.701164487322491</v>
       </c>
       <c r="G18" s="2">
-        <v>3.73400346921436</v>
+        <v>4.701164487322491</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>3.640755781599523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2">
+        <v>4.634944265547444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
-        <v>0.05103367996198296</v>
+        <v>0.03845466503801545</v>
       </c>
       <c r="C19" s="2">
-        <v>0.05103367996198296</v>
+        <v>0.03845466503801545</v>
       </c>
       <c r="D19" s="2">
-        <v>1.466753862194584</v>
+        <v>0.8335756587687492</v>
       </c>
       <c r="E19" s="2">
-        <v>1.666753862194584</v>
+        <v>1.033575658768749</v>
       </c>
       <c r="F19" s="2">
-        <v>2.066972853337756</v>
+        <v>2.334204092868858</v>
       </c>
       <c r="G19" s="2">
-        <v>2.066972853337756</v>
+        <v>2.334204092868858</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <v>2.015939173375773</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
+        <v>2.295749427830842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
-        <v>0.04992921634807481</v>
+        <v>0.03943314625985028</v>
       </c>
       <c r="C20" s="2">
-        <v>0.04992921634807481</v>
+        <v>0.03943314625985028</v>
       </c>
       <c r="D20" s="2">
-        <v>1.433604901587064</v>
+        <v>1.133575658768749</v>
       </c>
       <c r="E20" s="2">
-        <v>1.633604901587065</v>
+        <v>1.33357565876875</v>
       </c>
       <c r="F20" s="2">
-        <v>2.43493126310162</v>
+        <v>4.968074727147505</v>
       </c>
       <c r="G20" s="2">
-        <v>2.468283117352149</v>
+        <v>5.068495455495701</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2">
-        <v>2.385002046753546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2">
+        <v>4.928641580887655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>0.06324101886683738</v>
+        <v>0.0656377019924692</v>
       </c>
       <c r="C21" s="2">
-        <v>0.06324101886683738</v>
+        <v>0.0656377019924692</v>
       </c>
       <c r="D21" s="2">
-        <v>2.666753862194585</v>
+        <v>3.934018875094823</v>
       </c>
       <c r="E21" s="2">
-        <v>2.866753862194585</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2.933604031942413</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2.900206170525983</v>
-      </c>
+        <v>4.134018875094823</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2">
-        <v>2.870363013075576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2">
-        <v>0.06336746511303634</v>
+        <v>0.03812767096602568</v>
       </c>
       <c r="C22" s="2">
-        <v>0.06336746511303634</v>
+        <v>0.03812767096602568</v>
       </c>
       <c r="D22" s="2">
-        <v>3.367061421990451</v>
+        <v>0.8335698509861093</v>
       </c>
       <c r="E22" s="2">
-        <v>3.567061421990451</v>
+        <v>1.033569850986109</v>
       </c>
       <c r="F22" s="2">
-        <v>3.73400346921436</v>
+        <v>1.167057219908871</v>
       </c>
       <c r="G22" s="2">
-        <v>3.73400346921436</v>
+        <v>1.166945782142476</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2">
-        <v>3.670636004101324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <v>1.128929548942845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
-        <v>0.05564685821004269</v>
+        <v>0.06342372394654719</v>
       </c>
       <c r="C23" s="2">
-        <v>0.05564685821004269</v>
+        <v>0.06342372394654719</v>
       </c>
       <c r="D23" s="2">
-        <v>1.766753862194584</v>
+        <v>3.634018875094823</v>
       </c>
       <c r="E23" s="2">
-        <v>1.966753862194584</v>
+        <v>3.834018875094823</v>
       </c>
       <c r="F23" s="2">
-        <v>2.067162303112424</v>
+        <v>4.667816981902295</v>
       </c>
       <c r="G23" s="2">
-        <v>2.066972853337756</v>
+        <v>4.701164487322491</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2">
-        <v>2.011515444902381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2">
+        <v>4.604393257955747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
-        <v>0.0498912016914448</v>
+        <v>0.0349813858432861</v>
       </c>
       <c r="C24" s="2">
-        <v>0.0498912016914448</v>
+        <v>0.0349813858432861</v>
       </c>
       <c r="D24" s="2">
-        <v>1.166753862194583</v>
+        <v>0.5335756587687492</v>
       </c>
       <c r="E24" s="2">
-        <v>1.366753862194584</v>
+        <v>0.7335756587687492</v>
       </c>
       <c r="F24" s="2">
-        <v>2.401380037769814</v>
+        <v>2.334130424356569</v>
       </c>
       <c r="G24" s="2">
-        <v>2.468283117352149</v>
+        <v>2.334204092868858</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2">
-        <v>2.351488836078369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>2.299149038513283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
-        <v>0.04951293544228952</v>
+        <v>0.05343581269720456</v>
       </c>
       <c r="C25" s="2">
-        <v>0.04951293544228952</v>
+        <v>0.05343581269720456</v>
       </c>
       <c r="D25" s="2">
-        <v>1.133604901587064</v>
+        <v>2.734018875094822</v>
       </c>
       <c r="E25" s="2">
-        <v>1.333604901587064</v>
+        <v>2.934018875094822</v>
       </c>
       <c r="F25" s="2">
-        <v>2.90010656310776</v>
+        <v>5.035096401026519</v>
       </c>
       <c r="G25" s="2">
-        <v>2.900206170525983</v>
+        <v>5.068495455495701</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2">
-        <v>2.850593627665471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2">
+        <v>4.981660588329314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
-        <v>0.03566360537114419</v>
+        <v>0.039501859554999</v>
       </c>
       <c r="C26" s="2">
-        <v>0.03566360537114419</v>
+        <v>0.039501859554999</v>
       </c>
       <c r="D26" s="2">
-        <v>0.5667538621945833</v>
+        <v>1.634018875094821</v>
       </c>
       <c r="E26" s="2">
-        <v>0.7667538621945833</v>
+        <v>1.834018875094821</v>
       </c>
       <c r="F26" s="2">
-        <v>2.334366094633421</v>
+        <v>4.567463541485854</v>
       </c>
       <c r="G26" s="2">
-        <v>2.468283117352149</v>
+        <v>4.701164487322491</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2">
-        <v>2.298702489262277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2">
+        <v>4.527961681930855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
-        <v>0.03793176172008761</v>
+        <v>0.05546423986656691</v>
       </c>
       <c r="C27" s="2">
-        <v>0.03793176172008761</v>
+        <v>0.05546423986656691</v>
       </c>
       <c r="D27" s="2">
-        <v>0.8336049015870641</v>
+        <v>3.034018875094822</v>
       </c>
       <c r="E27" s="2">
-        <v>1.033604901587064</v>
+        <v>3.234018875094822</v>
       </c>
       <c r="F27" s="2">
-        <v>2.367891506897013</v>
+        <v>5.068495455495701</v>
       </c>
       <c r="G27" s="2">
-        <v>2.468283117352149</v>
+        <v>5.068495455495701</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2">
-        <v>2.329959745176925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2">
+        <v>5.013031215629134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
-        <v>0.05321462881442676</v>
+        <v>0.04679448534143015</v>
       </c>
       <c r="C28" s="2">
-        <v>0.05321462881442676</v>
+        <v>0.04679448534143015</v>
       </c>
       <c r="D28" s="2">
-        <v>1.733604901587065</v>
+        <v>2.134018875094821</v>
       </c>
       <c r="E28" s="2">
-        <v>1.933604901587065</v>
+        <v>2.334018875094821</v>
       </c>
       <c r="F28" s="2">
-        <v>2.468283117352149</v>
+        <v>4.600867196932157</v>
       </c>
       <c r="G28" s="2">
-        <v>2.468283117352149</v>
+        <v>4.701164487322491</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2">
-        <v>2.415068488537722</v>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2">
+        <v>4.554072711590726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.05818481217143657</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.05818481217143657</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.334018875094822</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.534018875094822</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4.634287335064958</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4.701164487322491</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2">
+        <v>4.576102522893522</v>
       </c>
     </row>
   </sheetData>

--- a/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
+++ b/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqiantong/PycharmProjects/LIFTS/output/double_track_results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E78E2B3-BC4D-CD44-B642-F2A56571A3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4040" yWindow="1840" windowWidth="22820" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -148,11 +154,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,44 +199,90 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf/>
+  <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:O29" totalsRowShown="0">
-  <autoFilter ref="A1:O29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:O29" totalsRowShown="0">
+  <autoFilter ref="A1:O29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="container_id" dataDxfId="0"/>
-    <tableColumn id="2" name="truck_arrival" dataDxfId="1"/>
-    <tableColumn id="3" name="truck_dropoff" dataDxfId="1"/>
-    <tableColumn id="4" name="hostler_pickup" dataDxfId="1"/>
-    <tableColumn id="5" name="hostler_dropoff" dataDxfId="1"/>
-    <tableColumn id="6" name="crane_load" dataDxfId="1"/>
-    <tableColumn id="7" name="train_depart" dataDxfId="1"/>
-    <tableColumn id="8" name="train_arrival_expected" dataDxfId="1"/>
-    <tableColumn id="9" name="train_arrival_actual" dataDxfId="1"/>
-    <tableColumn id="10" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=1)" dataDxfId="1"/>
-    <tableColumn id="11" name="truck_pickup" dataDxfId="1"/>
-    <tableColumn id="12" name="truck_exit" dataDxfId="1"/>
-    <tableColumn id="13" name="crane_unload_by_crane(type='Hybrid', id=2, track_id=1)" dataDxfId="1"/>
-    <tableColumn id="14" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=2)" dataDxfId="1"/>
-    <tableColumn id="15" name="container_processing_time" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="container_id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="truck_arrival" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="truck_dropoff" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="hostler_pickup" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="hostler_dropoff" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="crane_load" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="train_depart" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="train_arrival_expected" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="train_arrival_actual" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=1)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="truck_pickup" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="truck_exit" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="crane_unload_by_crane(type='Hybrid', id=2, track_id=1)" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=2)" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="container_processing_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +320,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -302,6 +354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,9 +389,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,14 +565,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="46.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,17 +626,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.3335756587687493</v>
+        <v>0.33349672386051632</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4335756587687493</v>
+        <v>0.4334967238605163</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -587,30 +648,30 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>0.5335756587687492</v>
+        <v>0.53349672386051628</v>
       </c>
       <c r="L2" s="2">
-        <v>0.5822202969906769</v>
+        <v>0.56748017527631467</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0.1335756587687493</v>
+        <v>0.13349672386051631</v>
       </c>
       <c r="O2" s="2">
-        <v>0.4822202969906769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.46748017527631469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>4.934693057802367</v>
+        <v>3.6676152300564349</v>
       </c>
       <c r="E3" s="2">
-        <v>5.034693057802366</v>
+        <v>3.7676152300564349</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -618,57 +679,69 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="2">
-        <v>4.701164487322491</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4.734693057802367</v>
-      </c>
+        <v>3.434199106974714</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>5.134693057802366</v>
+        <v>3.867615230056435</v>
       </c>
       <c r="L3" s="2">
-        <v>5.174147026808731</v>
+        <v>3.904873635092819</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2">
+        <v>3.4676152300564351</v>
+      </c>
       <c r="O3" s="2">
-        <v>4.77414702680873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.50487363509282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>3.5003456208799029</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.600345620879903</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
         <v>0.3</v>
       </c>
       <c r="I4" s="2">
-        <v>2.334204092868858</v>
+        <v>3.2668728499564779</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="2">
+        <v>3.700345620879903</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3.744449172113133</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.3003456208799031</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="2">
+        <v>3.4444491721131332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>0.3333708549008351</v>
+        <v>0.33340955013056989</v>
       </c>
       <c r="E5" s="2">
-        <v>0.433370854900835</v>
+        <v>0.43340955013056992</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -679,31 +752,31 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="2">
-        <v>0.1333708549008351</v>
+        <v>0.13340955013056999</v>
       </c>
       <c r="K5" s="2">
-        <v>0.533370854900835</v>
+        <v>0.5334095501305699</v>
       </c>
       <c r="L5" s="2">
-        <v>0.5764206755220675</v>
+        <v>0.59661577771035224</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2">
-        <v>0.4764206755220676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.49661577771035231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>1.400633194786547</v>
+        <v>2.333514031909476</v>
       </c>
       <c r="E6" s="2">
-        <v>1.500633194786547</v>
+        <v>2.4335140319094761</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -711,57 +784,69 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="2">
-        <v>1.166945782142476</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.200633194786547</v>
-      </c>
+        <v>2.0668957364016158</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>1.600633194786547</v>
+        <v>2.5335140319094762</v>
       </c>
       <c r="L6" s="2">
-        <v>1.646177664935731</v>
+        <v>2.5805384368056341</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>2.133514031909475</v>
+      </c>
       <c r="O6" s="2">
-        <v>1.546177664935731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2.480538436805634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2">
+        <v>3.5338451397709232</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.6338451397709228</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>0.3</v>
       </c>
       <c r="I7" s="2">
-        <v>2.334204092868858</v>
+        <v>3.2668728499564779</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="2">
+        <v>3.7338451397709229</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3.794802905929739</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3.333845139770923</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" s="2">
+        <v>3.4948029059297392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>0.3335698509861094</v>
+        <v>0.33336779600325711</v>
       </c>
       <c r="E8" s="2">
-        <v>0.4335698509861093</v>
+        <v>0.43336779600325698</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -773,30 +858,30 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <v>0.5335698509861093</v>
+        <v>0.53336779600325701</v>
       </c>
       <c r="L8" s="2">
-        <v>0.5723100651923855</v>
+        <v>0.58599516895840331</v>
       </c>
       <c r="M8" s="2">
-        <v>0.1335698509861094</v>
+        <v>0.13336779600325699</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2">
-        <v>0.4723100651923855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.48599516895840328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>1.434018875094821</v>
+        <v>2.36691466396173</v>
       </c>
       <c r="E9" s="2">
-        <v>1.534018875094821</v>
+        <v>2.466914663961731</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -804,34 +889,34 @@
         <v>0.1</v>
       </c>
       <c r="I9" s="2">
-        <v>1.166945782142476</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1.23401887509482</v>
-      </c>
+        <v>2.0668957364016158</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2">
-        <v>1.634018875094821</v>
+        <v>2.5669146639617311</v>
       </c>
       <c r="L9" s="2">
-        <v>1.6838733216946</v>
+        <v>2.6313967473001849</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>2.1669146639617298</v>
+      </c>
       <c r="O9" s="2">
-        <v>1.583873321694599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>2.5313967473001848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>0.733370854900835</v>
+        <v>0.73336779600325697</v>
       </c>
       <c r="E10" s="2">
-        <v>0.833370854900835</v>
+        <v>0.83336779600325694</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -841,32 +926,32 @@
       <c r="I10" s="2">
         <v>0.1</v>
       </c>
-      <c r="J10" s="2">
-        <v>0.1668924794209455</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2">
-        <v>0.9333708549008349</v>
+        <v>0.93336779600325692</v>
       </c>
       <c r="L10" s="2">
-        <v>0.9958054129007161</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>0.993915627385619</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.16675615851641629</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2">
-        <v>0.8958054129007161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.89391562738561903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>1.53357565876875</v>
+        <v>2.433409550130571</v>
       </c>
       <c r="E11" s="2">
-        <v>1.63357565876875</v>
+        <v>2.5334095501305711</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -874,34 +959,34 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="2">
-        <v>1.166945782142476</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.267360429342491</v>
-      </c>
+        <v>2.0668957364016158</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2">
-        <v>1.73357565876875</v>
+        <v>2.6334095501305712</v>
       </c>
       <c r="L11" s="2">
-        <v>1.795011651561497</v>
+        <v>2.6698999822299578</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2">
+        <v>2.2003855938919421</v>
+      </c>
       <c r="O11" s="2">
-        <v>1.695011651561497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.5698999822299582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1.800633194786547</v>
+        <v>2.7669146639617308</v>
       </c>
       <c r="E12" s="2">
-        <v>1.900633194786547</v>
+        <v>2.8669146639617309</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -909,34 +994,34 @@
         <v>0.1</v>
       </c>
       <c r="I12" s="2">
-        <v>1.166945782142476</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.30079009512422</v>
-      </c>
+        <v>2.0668957364016158</v>
+      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2">
-        <v>2.000633194786547</v>
+        <v>2.966914663961731</v>
       </c>
       <c r="L12" s="2">
-        <v>2.042597250665736</v>
+        <v>3.0129026715314371</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <v>2.2338183854240818</v>
+      </c>
       <c r="O12" s="2">
-        <v>1.942597250665736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>2.912902671531437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>1.93357565876875</v>
+        <v>2.8334095501305709</v>
       </c>
       <c r="E13" s="2">
-        <v>2.03357565876875</v>
+        <v>2.933409550130571</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -944,44 +1029,44 @@
         <v>0.1</v>
       </c>
       <c r="I13" s="2">
-        <v>1.166945782142476</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1.334293155784119</v>
-      </c>
+        <v>2.0668957364016158</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2">
-        <v>2.13357565876875</v>
+        <v>3.033409550130572</v>
       </c>
       <c r="L13" s="2">
-        <v>2.194963775716046</v>
+        <v>3.0905323040723589</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>2.2672843189960399</v>
+      </c>
       <c r="O13" s="2">
-        <v>2.094963775716046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>2.9905323040723588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>0.04060013624204847</v>
+        <v>4.9144239375912897E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.04060013624204847</v>
+        <v>4.9144239375912897E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>2.000633194786547</v>
+        <v>1.73340955013057</v>
       </c>
       <c r="E14" s="2">
-        <v>2.200633194786547</v>
+        <v>1.933409550130571</v>
       </c>
       <c r="F14" s="2">
-        <v>2.367528974145059</v>
+        <v>2.1001718484605831</v>
       </c>
       <c r="G14" s="2">
-        <v>2.334204092868858</v>
+        <v>2.0668957364016158</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -991,30 +1076,30 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2">
-        <v>2.326928837903011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>2.0510276090846702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>0.039901730974474</v>
+        <v>4.3553692430931087E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>0.039901730974474</v>
+        <v>4.3553692430931087E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>1.834018875094821</v>
+        <v>1.133496723860516</v>
       </c>
       <c r="E15" s="2">
-        <v>2.034018875094821</v>
+        <v>1.333496723860516</v>
       </c>
       <c r="F15" s="2">
-        <v>5.001593862631286</v>
+        <v>4.0338124751583351</v>
       </c>
       <c r="G15" s="2">
-        <v>5.068495455495701</v>
+        <v>4.1344134611068144</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1024,27 +1109,31 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2">
-        <v>4.961692131656812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>3.9902587827274041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>0.04689686491388399</v>
+        <v>5.5184677770671972E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>0.04689686491388399</v>
+        <v>5.5184677770671972E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>2.434018875094822</v>
+        <v>2.7335140319094759</v>
       </c>
       <c r="E16" s="2">
-        <v>2.634018875094822</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>2.9335140319094761</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.5672155534322538</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.5672155534322538</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1052,29 +1141,31 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" s="2">
+        <v>3.5120308756615821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03483628005213934</v>
+        <v>5.9683445724657093E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>0.03483628005213934</v>
+        <v>5.9683445724657093E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.5335698509861093</v>
+        <v>2.9335140319094761</v>
       </c>
       <c r="E17" s="2">
-        <v>0.7335698509861093</v>
+        <v>3.1335140319094759</v>
       </c>
       <c r="F17" s="2">
-        <v>1.166945782142476</v>
+        <v>3.2670022378070072</v>
       </c>
       <c r="G17" s="2">
-        <v>1.166945782142476</v>
+        <v>3.2668728499564779</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1084,30 +1175,30 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2">
-        <v>1.132109502090337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>3.2073187920823498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="2">
-        <v>0.06622022177504637</v>
+        <v>4.4684889289771261E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>0.06622022177504637</v>
+        <v>4.4684889289771261E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>4.234018875094822</v>
+        <v>1.433496723860517</v>
       </c>
       <c r="E18" s="2">
-        <v>4.434018875094822</v>
+        <v>1.6334967238605169</v>
       </c>
       <c r="F18" s="2">
-        <v>4.701164487322491</v>
+        <v>3.3672842405753198</v>
       </c>
       <c r="G18" s="2">
-        <v>4.701164487322491</v>
+        <v>3.434199106974714</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1117,30 +1208,30 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2">
-        <v>4.634944265547444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>3.322599351285549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03845466503801545</v>
+        <v>3.3956332748474462E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>0.03845466503801545</v>
+        <v>3.3956332748474462E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.8335756587687492</v>
+        <v>0.5334095501305699</v>
       </c>
       <c r="E19" s="2">
-        <v>1.033575658768749</v>
+        <v>0.73340955013056985</v>
       </c>
       <c r="F19" s="2">
-        <v>2.334204092868858</v>
+        <v>2.0668957364016158</v>
       </c>
       <c r="G19" s="2">
-        <v>2.334204092868858</v>
+        <v>2.0668957364016158</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1150,30 +1241,30 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2">
-        <v>2.295749427830842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>2.032939403653141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="2">
-        <v>0.03943314625985028</v>
+        <v>5.2501247634525287E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>0.03943314625985028</v>
+        <v>5.2501247634525287E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>1.133575658768749</v>
+        <v>2.0334095501305711</v>
       </c>
       <c r="E20" s="2">
-        <v>1.33357565876875</v>
+        <v>2.2334095501305709</v>
       </c>
       <c r="F20" s="2">
-        <v>4.968074727147505</v>
+        <v>4.1009008209975351</v>
       </c>
       <c r="G20" s="2">
-        <v>5.068495455495701</v>
+        <v>4.1344134611068144</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1183,27 +1274,31 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2">
-        <v>4.928641580887655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>4.0483995733630094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>0.0656377019924692</v>
+        <v>3.9243527717267607E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>0.0656377019924692</v>
+        <v>3.9243527717267607E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>3.934018875094823</v>
+        <v>0.53349672386051628</v>
       </c>
       <c r="E21" s="2">
-        <v>4.134018875094823</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>0.73349672386051623</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.5337851608524322</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3.5672155534322538</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1211,29 +1306,31 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21" s="2">
+        <v>3.4945416331351651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="2">
-        <v>0.03812767096602568</v>
+        <v>5.4989455760802948E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>0.03812767096602568</v>
+        <v>5.4989455760802948E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>0.8335698509861093</v>
+        <v>2.5335140319094762</v>
       </c>
       <c r="E22" s="2">
-        <v>1.033569850986109</v>
+        <v>2.7335140319094759</v>
       </c>
       <c r="F22" s="2">
-        <v>1.167057219908871</v>
+        <v>3.2668728499564779</v>
       </c>
       <c r="G22" s="2">
-        <v>1.166945782142476</v>
+        <v>3.2668728499564779</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1243,30 +1340,30 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2">
-        <v>1.128929548942845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>3.211883394195675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="2">
-        <v>0.06342372394654719</v>
+        <v>5.1562136925068308E-2</v>
       </c>
       <c r="C23" s="2">
-        <v>0.06342372394654719</v>
+        <v>5.1562136925068308E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>3.634018875094823</v>
+        <v>1.733496723860517</v>
       </c>
       <c r="E23" s="2">
-        <v>3.834018875094823</v>
+        <v>1.933496723860517</v>
       </c>
       <c r="F23" s="2">
-        <v>4.667816981902295</v>
+        <v>3.400658243121629</v>
       </c>
       <c r="G23" s="2">
-        <v>4.701164487322491</v>
+        <v>3.434199106974714</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1276,30 +1373,30 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2">
-        <v>4.604393257955747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>3.3490961061965612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="2">
-        <v>0.0349813858432861</v>
+        <v>4.2478101562498503E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>0.0349813858432861</v>
+        <v>4.2478101562498503E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>0.5335756587687492</v>
+        <v>1.1334095501305701</v>
       </c>
       <c r="E24" s="2">
-        <v>0.7335756587687492</v>
+        <v>1.3334095501305701</v>
       </c>
       <c r="F24" s="2">
-        <v>2.334130424356569</v>
+        <v>2.0668327032313871</v>
       </c>
       <c r="G24" s="2">
-        <v>2.334204092868858</v>
+        <v>2.0668957364016158</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1309,30 +1406,30 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
-        <v>2.299149038513283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>2.0243546016688878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="2">
-        <v>0.05343581269720456</v>
+        <v>6.3042567842600969E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>0.05343581269720456</v>
+        <v>6.3042567842600969E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>2.734018875094822</v>
+        <v>3.700345620879903</v>
       </c>
       <c r="E25" s="2">
-        <v>2.934018875094822</v>
+        <v>3.9003456208799041</v>
       </c>
       <c r="F25" s="2">
-        <v>5.035096401026519</v>
+        <v>4.1344134611068144</v>
       </c>
       <c r="G25" s="2">
-        <v>5.068495455495701</v>
+        <v>4.1344134611068144</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1342,30 +1439,30 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
-        <v>4.981660588329314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>4.0713708932642136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2">
-        <v>0.039501859554999</v>
+        <v>4.0282556266250553E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>0.039501859554999</v>
+        <v>4.0282556266250553E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>1.634018875094821</v>
+        <v>0.83349672386051621</v>
       </c>
       <c r="E26" s="2">
-        <v>1.834018875094821</v>
+        <v>1.0334967238605159</v>
       </c>
       <c r="F26" s="2">
-        <v>4.567463541485854</v>
+        <v>3.3339197073759972</v>
       </c>
       <c r="G26" s="2">
-        <v>4.701164487322491</v>
+        <v>3.434199106974714</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1375,30 +1472,30 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2">
-        <v>4.527961681930855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>3.293637151109746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="2">
-        <v>0.05546423986656691</v>
+        <v>4.4508340977005102E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>0.05546423986656691</v>
+        <v>4.4508340977005102E-2</v>
       </c>
       <c r="D27" s="2">
-        <v>3.034018875094822</v>
+        <v>1.4334095501305699</v>
       </c>
       <c r="E27" s="2">
-        <v>3.234018875094822</v>
+        <v>1.6334095501305701</v>
       </c>
       <c r="F27" s="2">
-        <v>5.068495455495701</v>
+        <v>4.0674217085970774</v>
       </c>
       <c r="G27" s="2">
-        <v>5.068495455495701</v>
+        <v>4.1344134611068144</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1408,30 +1505,30 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2">
-        <v>5.013031215629134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>4.0229133676200712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="2">
-        <v>0.04679448534143015</v>
+        <v>6.2613184881645273E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>0.04679448534143015</v>
+        <v>6.2613184881645273E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>2.134018875094821</v>
+        <v>2.966914663961731</v>
       </c>
       <c r="E28" s="2">
-        <v>2.334018875094821</v>
+        <v>3.1669146639617312</v>
       </c>
       <c r="F28" s="2">
-        <v>4.600867196932157</v>
+        <v>3.434199106974714</v>
       </c>
       <c r="G28" s="2">
-        <v>4.701164487322491</v>
+        <v>3.434199106974714</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1441,30 +1538,30 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2">
-        <v>4.554072711590726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>3.3715859220930691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="2">
-        <v>0.05818481217143657</v>
+        <v>4.0169373417184587E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>0.05818481217143657</v>
+        <v>4.0169373417184587E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>3.334018875094822</v>
+        <v>0.83340955013056983</v>
       </c>
       <c r="E29" s="2">
-        <v>3.534018875094822</v>
+        <v>1.03340955013057</v>
       </c>
       <c r="F29" s="2">
-        <v>4.634287335064958</v>
+        <v>3.3003751147941678</v>
       </c>
       <c r="G29" s="2">
-        <v>4.701164487322491</v>
+        <v>3.434199106974714</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1474,7 +1571,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2">
-        <v>4.576102522893522</v>
+        <v>3.2602057413769829</v>
       </c>
     </row>
   </sheetData>

--- a/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
+++ b/output/double_track_results/multiple_trains_crane_2_hostler_3_simulation_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqiantong/PycharmProjects/LIFTS/output/double_track_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E78E2B3-BC4D-CD44-B642-F2A56571A3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F562E78-540D-F445-B19B-B23431E329AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="1840" windowWidth="22820" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="20040" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>container_id</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>crane_unload_by_crane(type='Hybrid', id=1, track_id=2)</t>
+  </si>
+  <si>
+    <t>crane_unload_by_crane(type='Hybrid', id=2, track_id=2)</t>
   </si>
   <si>
     <t>container_processing_time</t>
@@ -199,7 +202,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     </dxf>
@@ -256,24 +262,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:O29" totalsRowShown="0">
-  <autoFilter ref="A1:O29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:P29" totalsRowShown="0">
+  <autoFilter ref="A1:P29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="container_id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="truck_arrival" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="truck_dropoff" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="hostler_pickup" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="hostler_dropoff" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="crane_load" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="train_depart" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="train_arrival_expected" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="train_arrival_actual" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=1)" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="truck_pickup" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="truck_exit" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="crane_unload_by_crane(type='Hybrid', id=2, track_id=1)" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=2)" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="container_processing_time" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="truck_arrival" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="truck_dropoff" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="hostler_pickup" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="hostler_dropoff" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="crane_load" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="train_depart" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="train_arrival_expected" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="train_arrival_actual" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=1)" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="truck_pickup" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="truck_exit" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="crane_unload_by_crane(type='Hybrid', id=2, track_id=1)" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="crane_unload_by_crane(type='Hybrid', id=1, track_id=2)" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="crane_unload_by_crane(type='Hybrid', id=2, track_id=2)" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="container_processing_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,20 +573,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,18 +632,21 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.33349672386051632</v>
+        <v>0.33349603242646608</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4334967238605163</v>
+        <v>0.43349603242646612</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -648,30 +658,31 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>0.53349672386051628</v>
+        <v>0.53349603242646604</v>
       </c>
       <c r="L2" s="2">
-        <v>0.56748017527631467</v>
+        <v>0.57384291836724255</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0.13349672386051631</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.46748017527631469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.13349603242646599</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>0.47384291836724263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>3.6676152300564349</v>
+        <v>4.2007517499329126</v>
       </c>
       <c r="E3" s="2">
-        <v>3.7676152300564349</v>
+        <v>4.3007517499329122</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -679,34 +690,35 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="2">
-        <v>3.434199106974714</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>3.8341164035073998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.8676714462866189</v>
+      </c>
       <c r="K3" s="2">
-        <v>3.867615230056435</v>
+        <v>4.4007517499329118</v>
       </c>
       <c r="L3" s="2">
-        <v>3.904873635092819</v>
+        <v>4.4380345921600819</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2">
-        <v>3.4676152300564351</v>
-      </c>
-      <c r="O3" s="2">
-        <v>3.50487363509282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>4.0380345921600824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>3.5003456208799029</v>
+        <v>3.8008865200193451</v>
       </c>
       <c r="E4" s="2">
-        <v>3.600345620879903</v>
+        <v>3.9008865200193452</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -714,34 +726,35 @@
         <v>0.3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.2668728499564779</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>3.5673359025140812</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.6008865200193449</v>
+      </c>
       <c r="K4" s="2">
-        <v>3.700345620879903</v>
+        <v>4.0008865200193453</v>
       </c>
       <c r="L4" s="2">
-        <v>3.744449172113133</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3.3003456208799031</v>
-      </c>
+        <v>4.0370509615031587</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2">
-        <v>3.4444491721131332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>3.7370509615031589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>0.33340955013056989</v>
+        <v>0.33352915644222259</v>
       </c>
       <c r="E5" s="2">
-        <v>0.43340955013056992</v>
+        <v>0.43352915644222267</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -752,31 +765,32 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="2">
-        <v>0.13340955013056999</v>
+        <v>0.1335291564422226</v>
       </c>
       <c r="K5" s="2">
-        <v>0.5334095501305699</v>
+        <v>0.53352915644222265</v>
       </c>
       <c r="L5" s="2">
-        <v>0.59661577771035224</v>
+        <v>0.58137636719563734</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2">
-        <v>0.49661577771035231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>0.48137636719563742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2.333514031909476</v>
+        <v>2.633798056408752</v>
       </c>
       <c r="E6" s="2">
-        <v>2.4335140319094761</v>
+        <v>2.7337980564087521</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -784,34 +798,35 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>2.5335140319094762</v>
+        <v>2.8337980564087522</v>
       </c>
       <c r="L6" s="2">
-        <v>2.5805384368056341</v>
+        <v>2.8809400467546911</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <v>2.133514031909475</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2.480538436805634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.4337980564087518</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
+        <v>2.780940046754691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>3.5338451397709232</v>
+        <v>3.8007517499329131</v>
       </c>
       <c r="E7" s="2">
-        <v>3.6338451397709228</v>
+        <v>3.9007517499329132</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -819,34 +834,35 @@
         <v>0.3</v>
       </c>
       <c r="I7" s="2">
-        <v>3.2668728499564779</v>
+        <v>3.5673359025140812</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
-        <v>3.7338451397709229</v>
+        <v>4.0007517499329133</v>
       </c>
       <c r="L7" s="2">
-        <v>3.794802905929739</v>
+        <v>4.0351909010202558</v>
       </c>
       <c r="M7" s="2">
-        <v>3.333845139770923</v>
+        <v>3.6007517499329129</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>3.4948029059297392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
+        <v>3.735190901020256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>0.33336779600325711</v>
+        <v>0.33345554501717889</v>
       </c>
       <c r="E8" s="2">
-        <v>0.43336779600325698</v>
+        <v>0.43345554501717898</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -858,30 +874,31 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <v>0.53336779600325701</v>
+        <v>0.53345554501717896</v>
       </c>
       <c r="L8" s="2">
-        <v>0.58599516895840331</v>
+        <v>0.57812751410343322</v>
       </c>
       <c r="M8" s="2">
-        <v>0.13336779600325699</v>
+        <v>0.13345554501717891</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2">
-        <v>0.48599516895840328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
+        <v>0.47812751410343318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>2.36691466396173</v>
+        <v>2.6337863490444611</v>
       </c>
       <c r="E9" s="2">
-        <v>2.466914663961731</v>
+        <v>2.7337863490444612</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -889,34 +906,35 @@
         <v>0.1</v>
       </c>
       <c r="I9" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
-        <v>2.5669146639617311</v>
+        <v>2.8337863490444608</v>
       </c>
       <c r="L9" s="2">
-        <v>2.6313967473001849</v>
+        <v>2.8723940223202482</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2">
-        <v>2.1669146639617298</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2">
-        <v>2.5313967473001848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.43378634904446</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2.7723940223202481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>0.73336779600325697</v>
+        <v>0.73345554501717891</v>
       </c>
       <c r="E10" s="2">
-        <v>0.83336779600325694</v>
+        <v>0.83345554501717889</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -928,30 +946,31 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
-        <v>0.93336779600325692</v>
+        <v>0.93345554501717887</v>
       </c>
       <c r="L10" s="2">
-        <v>0.993915627385619</v>
+        <v>0.97474992041075947</v>
       </c>
       <c r="M10" s="2">
-        <v>0.16675615851641629</v>
+        <v>0.166958054158343</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2">
-        <v>0.89391562738561903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
+        <v>0.8747499204107595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>2.433409550130571</v>
+        <v>2.733496032426467</v>
       </c>
       <c r="E11" s="2">
-        <v>2.5334095501305711</v>
+        <v>2.833496032426468</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -959,34 +978,35 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2">
-        <v>2.6334095501305712</v>
+        <v>2.9334960324264681</v>
       </c>
       <c r="L11" s="2">
-        <v>2.6698999822299578</v>
+        <v>2.978334616339982</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>2.2003855938919421</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2">
-        <v>2.5698999822299582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.4671914038288101</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.8783346163399819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>2.7669146639617308</v>
+        <v>3.033786349044461</v>
       </c>
       <c r="E12" s="2">
-        <v>2.8669146639617309</v>
+        <v>3.1337863490444611</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -994,34 +1014,35 @@
         <v>0.1</v>
       </c>
       <c r="I12" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
-        <v>2.966914663961731</v>
+        <v>3.2337863490444612</v>
       </c>
       <c r="L12" s="2">
-        <v>3.0129026715314371</v>
+        <v>3.2807957452984331</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>2.2338183854240818</v>
-      </c>
-      <c r="O12" s="2">
-        <v>2.912902671531437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.467264651715253</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>3.180795745298433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>2.8334095501305709</v>
+        <v>3.0337980564087519</v>
       </c>
       <c r="E13" s="2">
-        <v>2.933409550130571</v>
+        <v>3.133798056408752</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1029,44 +1050,45 @@
         <v>0.1</v>
       </c>
       <c r="I13" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
-        <v>3.033409550130572</v>
+        <v>3.233798056408753</v>
       </c>
       <c r="L13" s="2">
-        <v>3.0905323040723589</v>
+        <v>3.287311707710284</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2">
-        <v>2.2672843189960399</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2">
-        <v>2.9905323040723588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.5006139838513191</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3.1873117077102839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>4.9144239375912897E-2</v>
+        <v>6.0054945705732797E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>4.9144239375912897E-2</v>
+        <v>6.0054945705732797E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>1.73340955013057</v>
+        <v>2.0335291564422229</v>
       </c>
       <c r="E14" s="2">
-        <v>1.933409550130571</v>
+        <v>2.2335291564422231</v>
       </c>
       <c r="F14" s="2">
-        <v>2.1001718484605831</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="G14" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1075,31 +1097,32 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2">
-        <v>2.0510276090846702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2">
+        <v>2.3403617722366459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
-        <v>4.3553692430931087E-2</v>
+        <v>3.6534036576026149E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>4.3553692430931087E-2</v>
+        <v>3.6534036576026149E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>1.133496723860516</v>
+        <v>0.83349603242646597</v>
       </c>
       <c r="E15" s="2">
-        <v>1.333496723860516</v>
+        <v>1.0334960324264659</v>
       </c>
       <c r="F15" s="2">
-        <v>4.0338124751583351</v>
+        <v>4.2341872258860827</v>
       </c>
       <c r="G15" s="2">
-        <v>4.1344134611068144</v>
+        <v>4.2677706027097742</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1108,31 +1131,32 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2">
-        <v>3.9902587827274041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2">
+        <v>4.1976531893100564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
-        <v>5.5184677770671972E-2</v>
+        <v>4.3326655266777363E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>5.5184677770671972E-2</v>
+        <v>4.3326655266777363E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>2.7335140319094759</v>
+        <v>1.433529156442223</v>
       </c>
       <c r="E16" s="2">
-        <v>2.9335140319094761</v>
+        <v>1.633529156442223</v>
       </c>
       <c r="F16" s="2">
-        <v>3.5672155534322538</v>
+        <v>3.8341164035073998</v>
       </c>
       <c r="G16" s="2">
-        <v>3.5672155534322538</v>
+        <v>3.8341164035073998</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1141,31 +1165,32 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2">
-        <v>3.5120308756615821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2">
+        <v>3.790789748240623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
-        <v>5.9683445724657093E-2</v>
+        <v>6.1445106892370052E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>5.9683445724657093E-2</v>
+        <v>6.1445106892370052E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>2.9335140319094761</v>
+        <v>3.1334960324264678</v>
       </c>
       <c r="E17" s="2">
-        <v>3.1335140319094759</v>
+        <v>3.333496032426468</v>
       </c>
       <c r="F17" s="2">
-        <v>3.2670022378070072</v>
+        <v>3.5673359025140812</v>
       </c>
       <c r="G17" s="2">
-        <v>3.2668728499564779</v>
+        <v>3.5673359025140812</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1174,32 +1199,29 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2">
-        <v>3.2073187920823498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2">
+        <v>3.5058907956217111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
-        <v>4.4684889289771261E-2</v>
+        <v>5.0873320872008687E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>4.4684889289771261E-2</v>
+        <v>5.0873320872008687E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>1.433496723860517</v>
+        <v>1.733496032426467</v>
       </c>
       <c r="E18" s="2">
-        <v>1.6334967238605169</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3.3672842405753198</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3.434199106974714</v>
-      </c>
+        <v>1.9334960324264669</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1207,31 +1229,30 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2">
-        <v>3.322599351285549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>3.3956332748474462E-2</v>
+        <v>4.1677314681405807E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>3.3956332748474462E-2</v>
+        <v>4.1677314681405807E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.5334095501305699</v>
+        <v>1.4334960324264661</v>
       </c>
       <c r="E19" s="2">
-        <v>0.73340955013056985</v>
+        <v>1.633496032426466</v>
       </c>
       <c r="F19" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.3669678196654922</v>
       </c>
       <c r="G19" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1240,31 +1261,32 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2">
-        <v>2.032939403653141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2">
+        <v>2.325290504984086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>5.2501247634525287E-2</v>
+        <v>4.1480191936590888E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>5.2501247634525287E-2</v>
+        <v>4.1480191936590888E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>2.0334095501305711</v>
+        <v>1.133529156442223</v>
       </c>
       <c r="E20" s="2">
-        <v>2.2334095501305709</v>
+        <v>1.3335291564422229</v>
       </c>
       <c r="F20" s="2">
-        <v>4.1009008209975351</v>
+        <v>4.2676916318750067</v>
       </c>
       <c r="G20" s="2">
-        <v>4.1344134611068144</v>
+        <v>4.2677706027097742</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1273,31 +1295,32 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2">
-        <v>4.0483995733630094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2">
+        <v>4.2262114399384156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
-        <v>3.9243527717267607E-2</v>
+        <v>6.0879409146577128E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>3.9243527717267607E-2</v>
+        <v>6.0879409146577128E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>0.53349672386051628</v>
+        <v>2.3334960324264671</v>
       </c>
       <c r="E21" s="2">
-        <v>0.73349672386051623</v>
+        <v>2.5334960324264668</v>
       </c>
       <c r="F21" s="2">
-        <v>3.5337851608524322</v>
+        <v>3.8340852451361438</v>
       </c>
       <c r="G21" s="2">
-        <v>3.5672155534322538</v>
+        <v>3.8341164035073998</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1306,31 +1329,32 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2">
-        <v>3.4945416331351651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2">
+        <v>3.7732058359895668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
-        <v>5.4989455760802948E-2</v>
+        <v>5.0974064080551523E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>5.4989455760802948E-2</v>
+        <v>5.0974064080551523E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>2.5335140319094762</v>
+        <v>1.7335291564422231</v>
       </c>
       <c r="E22" s="2">
-        <v>2.7335140319094759</v>
+        <v>1.933529156442223</v>
       </c>
       <c r="F22" s="2">
-        <v>3.2668728499564779</v>
+        <v>3.567164815570548</v>
       </c>
       <c r="G22" s="2">
-        <v>3.2668728499564779</v>
+        <v>3.5673359025140812</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1339,32 +1363,29 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2">
-        <v>3.211883394195675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2">
+        <v>3.5161907514899968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
-        <v>5.1562136925068308E-2</v>
+        <v>5.7098581034704277E-2</v>
       </c>
       <c r="C23" s="2">
-        <v>5.1562136925068308E-2</v>
+        <v>5.7098581034704277E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>1.733496723860517</v>
+        <v>2.0334960324264668</v>
       </c>
       <c r="E23" s="2">
-        <v>1.933496723860517</v>
-      </c>
-      <c r="F23" s="2">
-        <v>3.400658243121629</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3.434199106974714</v>
-      </c>
+        <v>2.233496032426467</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1372,31 +1393,30 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2">
-        <v>3.3490961061965612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
-        <v>4.2478101562498503E-2</v>
+        <v>4.0677511078426778E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>4.2478101562498503E-2</v>
+        <v>4.0677511078426778E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>1.1334095501305701</v>
+        <v>1.133496032426466</v>
       </c>
       <c r="E24" s="2">
-        <v>1.3334095501305701</v>
+        <v>1.333496032426466</v>
       </c>
       <c r="F24" s="2">
-        <v>2.0668327032313871</v>
+        <v>2.3668681975053349</v>
       </c>
       <c r="G24" s="2">
-        <v>2.0668957364016158</v>
+        <v>2.4004167179423792</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1405,31 +1425,32 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2">
-        <v>2.0243546016688878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2">
+        <v>2.3261906864269082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
-        <v>6.3042567842600969E-2</v>
+        <v>3.8332730118124478E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>6.3042567842600969E-2</v>
+        <v>3.8332730118124478E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>3.700345620879903</v>
+        <v>0.83352915644222259</v>
       </c>
       <c r="E25" s="2">
-        <v>3.9003456208799041</v>
+        <v>1.0335291564422231</v>
       </c>
       <c r="F25" s="2">
-        <v>4.1344134611068144</v>
+        <v>4.2341850721812087</v>
       </c>
       <c r="G25" s="2">
-        <v>4.1344134611068144</v>
+        <v>4.2677706027097742</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1438,32 +1459,29 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2">
-        <v>4.0713708932642136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2">
+        <v>4.195852342063084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
-        <v>4.0282556266250553E-2</v>
+        <v>3.5986236523990259E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>4.0282556266250553E-2</v>
+        <v>3.5986236523990259E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>0.83349672386051621</v>
+        <v>0.53352915644222265</v>
       </c>
       <c r="E26" s="2">
-        <v>1.0334967238605159</v>
-      </c>
-      <c r="F26" s="2">
-        <v>3.3339197073759972</v>
-      </c>
-      <c r="G26" s="2">
-        <v>3.434199106974714</v>
-      </c>
+        <v>0.73352915644222261</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1471,31 +1489,30 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2">
-        <v>3.293637151109746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
-        <v>4.4508340977005102E-2</v>
+        <v>6.0978626711610889E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>4.4508340977005102E-2</v>
+        <v>6.0978626711610889E-2</v>
       </c>
       <c r="D27" s="2">
-        <v>1.4334095501305699</v>
+        <v>2.9334960324264681</v>
       </c>
       <c r="E27" s="2">
-        <v>1.6334095501305701</v>
+        <v>3.1334960324264678</v>
       </c>
       <c r="F27" s="2">
-        <v>4.0674217085970774</v>
+        <v>4.2677706027097742</v>
       </c>
       <c r="G27" s="2">
-        <v>4.1344134611068144</v>
+        <v>4.2677706027097742</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1504,32 +1521,29 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2">
-        <v>4.0229133676200712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2">
+        <v>4.2067919759981631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2">
-        <v>6.2613184881645273E-2</v>
+        <v>6.4111583383740622E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>6.2613184881645273E-2</v>
+        <v>6.4111583383740622E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>2.966914663961731</v>
+        <v>3.2337863490444612</v>
       </c>
       <c r="E28" s="2">
-        <v>3.1669146639617312</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3.434199106974714</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3.434199106974714</v>
-      </c>
+        <v>3.4337863490444609</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1537,32 +1551,27 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2">
-        <v>3.3715859220930691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2">
-        <v>4.0169373417184587E-2</v>
+        <v>3.4669582581601459E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>4.0169373417184587E-2</v>
+        <v>3.4669582581601459E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>0.83340955013056983</v>
+        <v>0.53349603242646604</v>
       </c>
       <c r="E29" s="2">
-        <v>1.03340955013057</v>
-      </c>
-      <c r="F29" s="2">
-        <v>3.3003751147941678</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3.434199106974714</v>
-      </c>
+        <v>0.73349603242646599</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1570,9 +1579,8 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2">
-        <v>3.2602057413769829</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
